--- a/outputs/3_effective_rates_kendall.xlsx
+++ b/outputs/3_effective_rates_kendall.xlsx
@@ -1610,10 +1610,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.023429406275483</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0258580499358621</v>
       </c>
     </row>
     <row r="3">
@@ -1621,10 +1621,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.0237331890788098</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0262003495789657</v>
       </c>
     </row>
     <row r="4">
@@ -1632,10 +1632,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.0242666285453572</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.0268016583739577</v>
       </c>
     </row>
     <row r="5">
@@ -1643,10 +1643,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.0219566486503333</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.0244109639033051</v>
       </c>
     </row>
     <row r="6">
@@ -1654,10 +1654,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0232599519534603</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.0258616233797635</v>
       </c>
     </row>
     <row r="7">
@@ -1665,10 +1665,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0227545772847915</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.0253607962819446</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1676,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0255396514664682</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0285095453803615</v>
       </c>
     </row>
     <row r="9">
@@ -1687,10 +1687,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.0268012053160896</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.0285578552606155</v>
       </c>
     </row>
     <row r="10">
@@ -1698,10 +1698,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0266988799141265</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0284259763474986</v>
       </c>
     </row>
     <row r="11">
@@ -1709,10 +1709,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.0268012053160896</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.0285578552606155</v>
       </c>
     </row>
     <row r="12">
@@ -1720,10 +1720,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.029337065945618</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.0360177688378823</v>
       </c>
     </row>
     <row r="13">
@@ -1731,10 +1731,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.026190454688666</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.027654204974286</v>
       </c>
     </row>
     <row r="14">
@@ -1742,10 +1742,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.026190454688666</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.027654204974286</v>
       </c>
     </row>
     <row r="15">
@@ -1753,10 +1753,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.0262927800906291</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.0277860838874029</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.029337065945618</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.0360177688378823</v>
       </c>
     </row>
     <row r="17">
@@ -1775,10 +1775,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.028836447904678</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.0304525937747491</v>
       </c>
     </row>
     <row r="18">
@@ -1786,10 +1786,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.028836447904678</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.0304525937747491</v>
       </c>
     </row>
     <row r="19">
@@ -1797,10 +1797,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.0266463214991191</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.0281221811331335</v>
       </c>
     </row>
     <row r="20">
@@ -1808,10 +1808,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.028035962776624</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.029584488328362</v>
       </c>
     </row>
     <row r="21">
@@ -1819,10 +1819,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.0273744306727543</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.0351785038322705</v>
       </c>
     </row>
     <row r="22">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.0271547467245796</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.0288939525063461</v>
       </c>
     </row>
     <row r="23">
@@ -1841,10 +1841,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0289387733066411</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.030584472687866</v>
       </c>
     </row>
     <row r="24">
@@ -1852,10 +1852,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.0266463214991191</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.0281221811331335</v>
       </c>
     </row>
     <row r="25">
@@ -1863,10 +1863,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.0293483541216541</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.0304525937747491</v>
       </c>
     </row>
     <row r="26">
@@ -1874,10 +1874,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.0285443880020845</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.0303562597015745</v>
       </c>
     </row>
     <row r="27">
@@ -1885,10 +1885,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.0293244599276396</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.0311768592970613</v>
       </c>
     </row>
     <row r="28">
@@ -1896,10 +1896,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.028035962776624</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.029584488328362</v>
       </c>
     </row>
     <row r="29">
@@ -1907,10 +1907,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.0292455454072678</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.030584472687866</v>
       </c>
     </row>
     <row r="30">
@@ -1918,10 +1918,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.0292347405436549</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.0358858899247655</v>
       </c>
     </row>
     <row r="31">
@@ -1929,10 +1929,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.0289387733066411</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.030584472687866</v>
       </c>
     </row>
     <row r="32">
@@ -1940,10 +1940,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.0297501247029371</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.0360177688378823</v>
       </c>
     </row>
     <row r="33">
@@ -1951,10 +1951,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.0280656440885185</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.029584488328362</v>
       </c>
     </row>
     <row r="34">
@@ -1962,10 +1962,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.0291586977270232</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.030584472687866</v>
       </c>
     </row>
     <row r="35">
@@ -1973,10 +1973,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.0302272704576567</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.0321768436565653</v>
       </c>
     </row>
     <row r="36">
@@ -1984,10 +1984,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.0306870530597632</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.0326765267921592</v>
       </c>
     </row>
     <row r="37">
@@ -1995,10 +1995,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.0280829154694238</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.0296344890698607</v>
       </c>
     </row>
     <row r="38">
@@ -2006,10 +2006,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.0302272704576567</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.0321768436565653</v>
       </c>
     </row>
     <row r="39">
@@ -2017,10 +2017,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.0304471948780388</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.0321768436565653</v>
       </c>
     </row>
     <row r="40">
@@ -2028,10 +2028,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.029337065945618</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.0360177688378823</v>
       </c>
     </row>
     <row r="41">
@@ -2039,10 +2039,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.0294417210813916</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.0304525937747491</v>
       </c>
     </row>
     <row r="42">
@@ -2050,10 +2050,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.0298862534575375</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.0304525937747491</v>
       </c>
     </row>
     <row r="43">
@@ -2061,10 +2061,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.029337065945618</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.0360177688378823</v>
       </c>
     </row>
     <row r="44">
@@ -2072,10 +2072,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.0273744306727543</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.117064335586443</v>
       </c>
     </row>
     <row r="45">
@@ -2083,10 +2083,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.029337065945618</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.117903600592055</v>
       </c>
     </row>
     <row r="46">
@@ -2094,10 +2094,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.029337065945618</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.0360177688378823</v>
       </c>
     </row>
     <row r="47">
@@ -2105,10 +2105,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.0292347405436549</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.0358858899247655</v>
       </c>
     </row>
     <row r="48">
@@ -2116,10 +2116,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.0268012053160896</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.0285578552606155</v>
       </c>
     </row>
     <row r="49">
@@ -2127,10 +2127,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.029337065945618</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.0360177688378823</v>
       </c>
     </row>
     <row r="50">
@@ -2138,10 +2138,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.0283301803850247</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.0302134042132006</v>
       </c>
     </row>
     <row r="51">
@@ -2149,10 +2149,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.0281656770978195</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.0301320244142859</v>
       </c>
     </row>
     <row r="52">
@@ -2160,10 +2160,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.0278355278494148</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.0297823994936616</v>
       </c>
     </row>
     <row r="53">
@@ -2171,10 +2171,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>0.0265739739997934</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.0297340896134077</v>
       </c>
     </row>
     <row r="54">
@@ -2182,10 +2182,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>0.023485518628442</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.0258513146984216</v>
       </c>
     </row>
     <row r="55">
@@ -2193,10 +2193,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.0238156678768467</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.0262009396190459</v>
       </c>
     </row>
     <row r="56">
@@ -2204,10 +2204,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>0.0239801711640518</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.0262823194179606</v>
       </c>
     </row>
     <row r="57">
@@ -2215,10 +2215,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>0.0241194506801735</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.0265432392621495</v>
       </c>
     </row>
     <row r="58">
@@ -2226,10 +2226,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.0240395275299826</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.0264135765889822</v>
       </c>
     </row>
     <row r="59">
@@ -2237,10 +2237,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.0246528901467209</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.0271445480571415</v>
       </c>
     </row>
     <row r="60">
@@ -2248,10 +2248,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.0235908410869501</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.0259011164354535</v>
       </c>
     </row>
     <row r="61">
@@ -2259,10 +2259,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.0228621836669109</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.0250793635816564</v>
       </c>
     </row>
     <row r="62">
@@ -2270,10 +2270,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>0.0222968444577942</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.0244071611909583</v>
       </c>
     </row>
     <row r="63">
@@ -2281,10 +2281,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.0231923329153155</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.0254289885022807</v>
       </c>
     </row>
     <row r="64">
@@ -2292,10 +2292,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>0.023485518628442</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.0258513146984216</v>
       </c>
     </row>
     <row r="65">
@@ -2303,10 +2303,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>0.0240395275299826</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>0.0264135765889822</v>
       </c>
     </row>
     <row r="66">
@@ -2314,10 +2314,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.030866041014553</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.0376733177904674</v>
       </c>
     </row>
     <row r="67">
@@ -2325,10 +2325,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>0.0307015377273479</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.0375919379915527</v>
       </c>
     </row>
     <row r="68">
@@ -2336,10 +2336,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.0257219012289805</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.0329634545687999</v>
       </c>
     </row>
     <row r="69">
@@ -2347,10 +2347,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>0.0228621836669109</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.0250793635816564</v>
       </c>
     </row>
     <row r="70">
@@ -2358,10 +2358,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.0273313536702718</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>0.0291153261454849</v>
       </c>
     </row>
     <row r="71">
@@ -2369,10 +2369,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.0272290282683087</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.028983447232368</v>
       </c>
     </row>
     <row r="72">
@@ -2380,10 +2380,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.0298672142998002</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>0.0365752397227517</v>
       </c>
     </row>
     <row r="73">
@@ -2391,10 +2391,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.0267773447687312</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.0285530642549243</v>
       </c>
     </row>
     <row r="74">
@@ -2402,10 +2402,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.022981344449299</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>0.0251842413502449</v>
       </c>
     </row>
     <row r="75">
@@ -2413,10 +2413,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>0.0259405311172931</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.0273910762636687</v>
       </c>
     </row>
     <row r="76">
@@ -2424,10 +2424,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.0273313536702718</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>0.0291153261454849</v>
       </c>
     </row>
     <row r="77">
@@ -2435,10 +2435,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>0.0298672142998002</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>0.0365752397227517</v>
       </c>
     </row>
     <row r="78">
@@ -2446,10 +2446,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>0.0305041417735535</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>0.0365752397227517</v>
       </c>
     </row>
     <row r="79">
@@ -2457,10 +2457,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>0.0298672142998002</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.0365752397227517</v>
       </c>
     </row>
     <row r="80">
@@ -2468,10 +2468,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.0298672142998002</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.0365752397227517</v>
       </c>
     </row>
     <row r="81">
@@ -2479,10 +2479,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>0.022905726073445</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.0250491046132927</v>
       </c>
     </row>
     <row r="82">
@@ -2490,10 +2490,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.0238659626034685</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.0262112531891354</v>
       </c>
     </row>
     <row r="83">
@@ -2501,10 +2501,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>0.0223981560131364</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>0.0246792139137624</v>
       </c>
     </row>
     <row r="84">
@@ -2512,10 +2512,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>0.00570334137365563</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>0.00622648077586441</v>
       </c>
     </row>
     <row r="85">
@@ -2523,10 +2523,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>0.0145121878612558</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.0161356849140228</v>
       </c>
     </row>
     <row r="86">
@@ -2534,10 +2534,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>0.0276619629229007</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.0295800760938148</v>
       </c>
     </row>
     <row r="87">
@@ -2545,10 +2545,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>0.0261941563325686</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.0280480368184418</v>
       </c>
     </row>
     <row r="88">
@@ -2556,10 +2556,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.0225654962978683</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>0.0246835145882205</v>
       </c>
     </row>
     <row r="89">
@@ -2567,10 +2567,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>0.0261941563325686</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>0.0280480368184418</v>
       </c>
     </row>
     <row r="90">
@@ -2578,10 +2578,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.0276619629229007</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.0295800760938148</v>
       </c>
     </row>
     <row r="91">
@@ -2589,10 +2589,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>0.0222287016911137</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.0246827873576638</v>
       </c>
     </row>
     <row r="92">
@@ -2600,10 +2600,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.0230266303255719</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.0256326197363033</v>
       </c>
     </row>
     <row r="93">
@@ -2611,10 +2611,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.0231556148042333</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>0.0254301835107173</v>
       </c>
     </row>
     <row r="94">
@@ -2622,10 +2622,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.0254597398355637</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>0.028571203436733</v>
       </c>
     </row>
     <row r="95">
@@ -2633,10 +2633,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>0.024894400626447</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>0.0278990010460349</v>
       </c>
     </row>
     <row r="96">
@@ -2644,10 +2644,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>0.0279794374791104</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.0314235413946246</v>
       </c>
     </row>
     <row r="97">
@@ -2655,10 +2655,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>0.0279794374791104</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.0314235413946246</v>
       </c>
     </row>
     <row r="98">
@@ -2666,10 +2666,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>0.0279170276440373</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.0298414731618838</v>
       </c>
     </row>
     <row r="99">
@@ -2677,10 +2677,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>0.0274223751084275</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.0294104684423449</v>
       </c>
     </row>
     <row r="100">
@@ -2688,10 +2688,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>0.0245667771311907</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.00758891239976747</v>
       </c>
     </row>
     <row r="101">
@@ -2699,10 +2699,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.0214479260052299</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>0.0236063516095625</v>
       </c>
     </row>
     <row r="102">
@@ -2710,10 +2710,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>0.0208825867961132</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>0.0229341492188643</v>
       </c>
     </row>
     <row r="103">
@@ -2721,10 +2721,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>0.0248503044527434</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.0272785783990664</v>
       </c>
     </row>
     <row r="104">
@@ -2732,10 +2732,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>0.0236555400397105</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.0259703800947898</v>
       </c>
     </row>
     <row r="105">
@@ -2743,10 +2743,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>0.0299420727519742</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.0322628064002364</v>
       </c>
     </row>
     <row r="106">
@@ -2754,10 +2754,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>0.0271601673035952</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.0289615178862953</v>
       </c>
     </row>
     <row r="107">
@@ -2765,10 +2765,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>0.0270578419016321</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>0.0288296389731785</v>
       </c>
     </row>
     <row r="108">
@@ -2776,10 +2776,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>0.0266061584020546</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>0.0283992559957347</v>
       </c>
     </row>
     <row r="109">
@@ -2787,10 +2787,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>0.0246242936858071</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>0.0270430166710874</v>
       </c>
     </row>
     <row r="110">
@@ -2798,10 +2798,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>0.0225969731747487</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>0.0247790731685949</v>
       </c>
     </row>
     <row r="111">
@@ -2809,10 +2809,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.0204382484255842</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>0.0224462848410287</v>
       </c>
     </row>
     <row r="112">
@@ -2820,10 +2820,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>0.026562588311412</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.0281698959697892</v>
       </c>
     </row>
     <row r="113">
@@ -2831,10 +2831,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>0.0257693447506165</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>0.0272372680044791</v>
       </c>
     </row>
     <row r="114">
@@ -2842,10 +2842,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>0.0258716701525796</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>0.027369146917596</v>
       </c>
     </row>
     <row r="115">
@@ -2853,10 +2853,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>0.0252153358490759</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>0.0266750061139185</v>
       </c>
     </row>
     <row r="116">
@@ -2864,10 +2864,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.0260085794098714</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>0.0276076340792285</v>
       </c>
     </row>
     <row r="117">
@@ -2875,10 +2875,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>0.025317661251039</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>0.0268068850270354</v>
       </c>
     </row>
     <row r="118">
@@ -2886,10 +2886,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>0.0238498546607069</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>0.0252748457516624</v>
       </c>
     </row>
     <row r="119">
@@ -2897,10 +2897,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>0.0238614943607442</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.0262020951917814</v>
       </c>
     </row>
     <row r="120">
@@ -2908,10 +2908,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>0.0301727990711426</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.0320091362490411</v>
       </c>
     </row>
     <row r="121">
@@ -2919,10 +2919,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>0.0240374707314193</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>0.0263354066571317</v>
       </c>
     </row>
     <row r="122">
@@ -2930,10 +2930,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>0.0279390579536765</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.0295201747951943</v>
       </c>
     </row>
     <row r="123">
@@ -2941,10 +2941,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>0.0280358999209298</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>0.0298715775817211</v>
       </c>
     </row>
     <row r="124">
@@ -2952,10 +2952,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>0.0248002700564822</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>0.0271763281364377</v>
       </c>
     </row>
     <row r="125">
@@ -2963,10 +2963,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>0.0286095006194136</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>0.0297262294583259</v>
       </c>
     </row>
     <row r="126">
@@ -2974,10 +2974,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>0.0254066848078132</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>0.0271763281364377</v>
       </c>
     </row>
     <row r="127">
@@ -2985,10 +2985,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>0.0292275551046921</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>0.0311125457638937</v>
       </c>
     </row>
     <row r="128">
@@ -2996,10 +2996,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>0.0293298805066552</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>0.0312444246770105</v>
       </c>
     </row>
     <row r="129">
@@ -3007,10 +3007,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>0.0250656493252561</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.0252748457516624</v>
       </c>
     </row>
     <row r="130">
@@ -3018,10 +3018,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>0.0271589860281214</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.0286995751997076</v>
       </c>
     </row>
     <row r="131">
@@ -3029,10 +3029,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>0.0232033879260797</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.0247790731685949</v>
       </c>
     </row>
     <row r="132">
@@ -3040,10 +3040,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>0.0273426602369671</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>0.0289904955652759</v>
       </c>
     </row>
     <row r="133">
@@ -3051,10 +3051,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>0.027169003062743</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>0.0281698959697892</v>
       </c>
     </row>
     <row r="134">
@@ -3062,10 +3062,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>0.0284888952604161</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>0.029030656102415</v>
       </c>
     </row>
     <row r="135">
@@ -3073,10 +3073,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>0.0250772890252934</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>0.0262020951917814</v>
       </c>
     </row>
     <row r="136">
@@ -3084,10 +3084,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>0.0288182910429359</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>0.0300048890470713</v>
       </c>
     </row>
     <row r="137">
@@ -3095,10 +3095,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>0.0287658851931455</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>0.0305671509376319</v>
       </c>
     </row>
     <row r="138">
@@ -3106,10 +3106,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>0.0280250474821404</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>0.0290722610817613</v>
       </c>
     </row>
     <row r="139">
@@ -3117,10 +3117,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>0.0293722999444765</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>0.0305671509376319</v>
       </c>
     </row>
     <row r="140">
@@ -3128,10 +3128,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>0.0233597724998116</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>0.025619994647901</v>
       </c>
     </row>
     <row r="141">
@@ -3139,10 +3139,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>0.0297773924114317</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>0.0306230270711143</v>
       </c>
     </row>
     <row r="142">
@@ -3150,10 +3150,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>0.0272731005958669</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.029030656102415</v>
       </c>
     </row>
     <row r="143">
@@ -3161,10 +3161,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>0.0291156066484231</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>0.0311852889616749</v>
       </c>
     </row>
     <row r="144">
@@ -3172,10 +3172,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>0.0303314013129723</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>0.0311852889616749</v>
       </c>
     </row>
     <row r="145">
@@ -3183,10 +3183,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>0.0287831577936377</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>0.0305468290538126</v>
       </c>
     </row>
     <row r="146">
@@ -3194,10 +3194,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>0.0278080136328287</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.0296036063581362</v>
       </c>
     </row>
     <row r="147">
@@ -3205,10 +3205,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>0.0277056882308656</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>0.0294717274450193</v>
       </c>
     </row>
     <row r="148">
@@ -3216,10 +3216,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>0.02641719107985</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>0.02787935647632</v>
       </c>
     </row>
     <row r="149">
@@ -3227,10 +3227,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>0.0278068323573549</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.0293416636715485</v>
       </c>
     </row>
     <row r="150">
@@ -3238,10 +3238,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>0.0278068323573549</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>0.0293416636715485</v>
       </c>
     </row>
     <row r="151">
@@ -3249,10 +3249,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>0.028262699167808</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>0.0298096398303959</v>
       </c>
     </row>
     <row r="152">
@@ -3260,10 +3260,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>0.028262699167808</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.0298096398303959</v>
       </c>
     </row>
     <row r="153">
@@ -3271,10 +3271,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>0.0291325340683823</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>0.0306936855493111</v>
       </c>
     </row>
     <row r="154">
@@ -3282,10 +3282,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>0.0290497405613946</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>0.030706949793044</v>
       </c>
     </row>
     <row r="155">
@@ -3293,10 +3293,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>0.0291325340683823</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>0.0306936855493111</v>
       </c>
     </row>
     <row r="156">
@@ -3304,10 +3304,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>0.0315741671357476</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>0.0336328964782109</v>
       </c>
     </row>
     <row r="157">
@@ -3315,10 +3315,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>0.0316435169082679</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.033648836750739</v>
       </c>
     </row>
     <row r="158">
@@ -3326,10 +3326,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>0.0316435169082679</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>0.033648836750739</v>
       </c>
     </row>
     <row r="159">
@@ -3337,10 +3337,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>0.0268730578903031</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.0283473326351675</v>
       </c>
     </row>
     <row r="160">
@@ -3348,10 +3348,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>0.0292473299140256</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>0.0308979971600852</v>
       </c>
     </row>
     <row r="161">
@@ -3359,10 +3359,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>0.0281615550413187</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>0.0299397036038668</v>
       </c>
     </row>
     <row r="162">
@@ -3370,10 +3370,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>0.0269753832922662</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>0.0284792115482844</v>
       </c>
     </row>
     <row r="163">
@@ -3381,10 +3381,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>0.0316435169082679</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>0.033648836750739</v>
       </c>
     </row>
     <row r="164">
@@ -3392,10 +3392,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>0.0282923804797026</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>0.0298096398303959</v>
       </c>
     </row>
     <row r="165">
@@ -3403,10 +3403,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>0.0295511963188236</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>0.0314020107990953</v>
       </c>
     </row>
     <row r="166">
@@ -3414,10 +3414,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>0.0291325340683823</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>0.0306936855493111</v>
       </c>
     </row>
     <row r="167">
@@ -3425,10 +3425,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>0.028262699167808</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>0.0298096398303959</v>
       </c>
     </row>
     <row r="168">
@@ -3436,10 +3436,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>0.028262699167808</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>0.0298096398303959</v>
       </c>
     </row>
     <row r="169">
@@ -3447,10 +3447,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>0.028262699167808</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>0.0298096398303959</v>
       </c>
     </row>
     <row r="170">
@@ -3458,10 +3458,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>0.028262699167808</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>0.0298096398303959</v>
       </c>
     </row>
     <row r="171">
@@ -3469,10 +3469,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>0.0291325340683823</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.0310518522241756</v>
       </c>
     </row>
     <row r="172">
@@ -3480,10 +3480,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>0.0316511450292513</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>0.0306936855493111</v>
       </c>
     </row>
     <row r="173">
@@ -3491,10 +3491,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>0.0231674709523194</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>0.025317347452177</v>
       </c>
     </row>
     <row r="174">
@@ -3502,10 +3502,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>0.0253261957014839</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.0276501357797432</v>
       </c>
     </row>
     <row r="175">
@@ -3513,10 +3513,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>0.0249140559637674</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>0.0272272473031174</v>
       </c>
     </row>
     <row r="176">
@@ -3524,10 +3524,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>0.0247886025095933</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>0.0270527174718427</v>
       </c>
     </row>
     <row r="177">
@@ -3535,10 +3535,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>0.0265998987401244</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>0.029075947413074</v>
       </c>
     </row>
     <row r="178">
@@ -3546,10 +3546,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>0.0274693151745414</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>0.0287028580508873</v>
       </c>
     </row>
     <row r="179">
@@ -3557,10 +3557,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>0.0262535205099922</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>0.0287028580508873</v>
       </c>
     </row>
   </sheetData>
@@ -3644,43 +3644,43 @@
         <v>378275544</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1427071494</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>38983191</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>65991723</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="J2" t="n">
         <v>1570787.42</v>
       </c>
       <c r="K2" t="n">
-        <v>432358540</v>
+        <v>1229887.1</v>
       </c>
       <c r="L2" t="n">
-        <v>12988404</v>
+        <v>36946.82</v>
       </c>
       <c r="M2" t="n">
-        <v>22000237</v>
+        <v>62581.87</v>
       </c>
       <c r="N2" t="n">
-        <v>84852571</v>
+        <v>241371.63</v>
       </c>
       <c r="O2" t="s">
         <v>198</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.000861825847668428</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.000948118804841317</v>
       </c>
     </row>
     <row r="3">
@@ -3697,43 +3697,43 @@
         <v>697222047</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>10561670943</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1070065818</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>268198197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1784805</v>
       </c>
       <c r="J3" t="n">
         <v>22745842.77</v>
       </c>
       <c r="K3" t="n">
-        <v>3185074057</v>
+        <v>19160450</v>
       </c>
       <c r="L3" t="n">
-        <v>342057289</v>
+        <v>2057714.01</v>
       </c>
       <c r="M3" t="n">
-        <v>89401576</v>
+        <v>537813.08</v>
       </c>
       <c r="N3" t="n">
-        <v>164547049</v>
+        <v>989865.68</v>
       </c>
       <c r="O3" t="s">
         <v>201</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.00181414949428045</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.00193947312406812</v>
       </c>
     </row>
     <row r="4">
@@ -3750,43 +3750,43 @@
         <v>118928958</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>163349136</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>22060980</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1025658</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="J4" t="n">
         <v>2456108.35</v>
       </c>
       <c r="K4" t="n">
-        <v>49336373</v>
+        <v>1466597.68</v>
       </c>
       <c r="L4" t="n">
-        <v>7351173</v>
+        <v>218524.64</v>
       </c>
       <c r="M4" t="n">
-        <v>341886</v>
+        <v>10163.07</v>
       </c>
       <c r="N4" t="n">
-        <v>25594098</v>
+        <v>760822.96</v>
       </c>
       <c r="O4" t="s">
         <v>204</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.00897830080962289</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.009905630694257</v>
       </c>
     </row>
     <row r="5">
@@ -3803,43 +3803,43 @@
         <v>116827320</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>127968696</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>14622672</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1025658</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>293898</v>
       </c>
       <c r="J5" t="n">
         <v>450636.55</v>
       </c>
       <c r="K5" t="n">
-        <v>38300446</v>
+        <v>251239.45</v>
       </c>
       <c r="L5" t="n">
-        <v>4867846</v>
+        <v>31931.61</v>
       </c>
       <c r="M5" t="n">
-        <v>341886</v>
+        <v>2242.67</v>
       </c>
       <c r="N5" t="n">
-        <v>25187558</v>
+        <v>165222.82</v>
       </c>
       <c r="O5" t="s">
         <v>207</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.00196328834983206</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.00218389310552628</v>
       </c>
     </row>
     <row r="6">
@@ -3856,43 +3856,43 @@
         <v>697222047</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>10561670943</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1070065818</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>268198197</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1784805</v>
       </c>
       <c r="J6" t="n">
         <v>6125727.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3185074057</v>
+        <v>5160138.47</v>
       </c>
       <c r="L6" t="n">
-        <v>342057289</v>
+        <v>554167.02</v>
       </c>
       <c r="M6" t="n">
-        <v>89401576</v>
+        <v>144839.49</v>
       </c>
       <c r="N6" t="n">
-        <v>164547049</v>
+        <v>266582.67</v>
       </c>
       <c r="O6" t="s">
         <v>210</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.000488572167969312</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.00052232332496813</v>
       </c>
     </row>
     <row r="7">
@@ -3909,43 +3909,43 @@
         <v>205535982</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>205714515</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>23614545</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2281362</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="J7" t="n">
         <v>2762515.72</v>
       </c>
       <c r="K7" t="n">
-        <v>61890031</v>
+        <v>1457875.43</v>
       </c>
       <c r="L7" t="n">
-        <v>7869028</v>
+        <v>185362.02</v>
       </c>
       <c r="M7" t="n">
-        <v>760454</v>
+        <v>17913.18</v>
       </c>
       <c r="N7" t="n">
-        <v>46755383</v>
+        <v>1101365.09</v>
       </c>
       <c r="O7" t="s">
         <v>213</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.00708688655246325</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.00784970381612816</v>
       </c>
     </row>
     <row r="8">
@@ -3962,43 +3962,43 @@
         <v>203207496</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205714515</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>23614545</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2281362</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="J8" t="n">
         <v>244178.81</v>
       </c>
       <c r="K8" t="n">
-        <v>61890031</v>
+        <v>129523.47</v>
       </c>
       <c r="L8" t="n">
-        <v>7869028</v>
+        <v>16468.3</v>
       </c>
       <c r="M8" t="n">
-        <v>760454</v>
+        <v>1591.47</v>
       </c>
       <c r="N8" t="n">
-        <v>46156143</v>
+        <v>96595.57</v>
       </c>
       <c r="O8" t="s">
         <v>216</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.000629627277394597</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.000697398627512834</v>
       </c>
     </row>
     <row r="9">
@@ -4015,13 +4015,13 @@
         <v>105519624</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>90211395</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11838207</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1025658</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -4033,25 +4033,25 @@
         <v>293060.42</v>
       </c>
       <c r="K9" t="n">
-        <v>26669311</v>
+        <v>144947.68</v>
       </c>
       <c r="L9" t="n">
-        <v>3945691</v>
+        <v>21444.84</v>
       </c>
       <c r="M9" t="n">
-        <v>341886</v>
+        <v>1858.16</v>
       </c>
       <c r="N9" t="n">
-        <v>22964074</v>
+        <v>124809.74</v>
       </c>
       <c r="O9" t="s">
         <v>219</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.00160675577625199</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.00181150843856026</v>
       </c>
     </row>
     <row r="10">
@@ -4068,13 +4068,13 @@
         <v>2328852</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>64479588</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>10796820</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1025658</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -4086,25 +4086,25 @@
         <v>24139.96</v>
       </c>
       <c r="K10" t="n">
-        <v>19072820</v>
+        <v>19587.79</v>
       </c>
       <c r="L10" t="n">
-        <v>3598562</v>
+        <v>3695.72</v>
       </c>
       <c r="M10" t="n">
-        <v>341886</v>
+        <v>351.11</v>
       </c>
       <c r="N10" t="n">
-        <v>492057</v>
+        <v>505.34</v>
       </c>
       <c r="O10" t="s">
         <v>222</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.000303782803326845</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.000342299643103586</v>
       </c>
     </row>
     <row r="11">
@@ -4121,13 +4121,13 @@
         <v>2234472</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>63964896</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>10796820</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1025658</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -4139,25 +4139,25 @@
         <v>42061.58</v>
       </c>
       <c r="K11" t="n">
-        <v>18913256</v>
+        <v>34121.4</v>
       </c>
       <c r="L11" t="n">
-        <v>3598562</v>
+        <v>6492.17</v>
       </c>
       <c r="M11" t="n">
-        <v>341886</v>
+        <v>616.79</v>
       </c>
       <c r="N11" t="n">
-        <v>460737</v>
+        <v>831.22</v>
       </c>
       <c r="O11" t="s">
         <v>225</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.000533439466547401</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.000601308794992048</v>
       </c>
     </row>
     <row r="12">
@@ -4174,13 +4174,13 @@
         <v>86949324</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>42365379</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1553565</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1255704</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -4192,25 +4192,25 @@
         <v>1033493.86</v>
       </c>
       <c r="K12" t="n">
-        <v>12553658</v>
+        <v>373190.12</v>
       </c>
       <c r="L12" t="n">
-        <v>517855</v>
+        <v>15394.6</v>
       </c>
       <c r="M12" t="n">
-        <v>418568</v>
+        <v>12443.02</v>
       </c>
       <c r="N12" t="n">
-        <v>21275385</v>
+        <v>632466.12</v>
       </c>
       <c r="O12" t="s">
         <v>227</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.00880884648760017</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.00990920413815836</v>
       </c>
     </row>
     <row r="13">
@@ -4227,13 +4227,13 @@
         <v>141576711</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94187937</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1911663</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1255704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -4245,25 +4245,25 @@
         <v>136290.55</v>
       </c>
       <c r="K13" t="n">
-        <v>28259598</v>
+        <v>62162.63</v>
       </c>
       <c r="L13" t="n">
-        <v>634549</v>
+        <v>1395.81</v>
       </c>
       <c r="M13" t="n">
-        <v>421240</v>
+        <v>926.61</v>
       </c>
       <c r="N13" t="n">
-        <v>32643314</v>
+        <v>71805.5</v>
       </c>
       <c r="O13" t="s">
         <v>229</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.000659985046705079</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.000733233629067929</v>
       </c>
     </row>
     <row r="14">
@@ -4280,13 +4280,13 @@
         <v>1581039</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>17531430</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>802245</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>561543</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -4298,25 +4298,25 @@
         <v>16595.48</v>
       </c>
       <c r="K14" t="n">
-        <v>4909221</v>
+        <v>13988.83</v>
       </c>
       <c r="L14" t="n">
-        <v>267415</v>
+        <v>762</v>
       </c>
       <c r="M14" t="n">
-        <v>187181</v>
+        <v>533.37</v>
       </c>
       <c r="N14" t="n">
-        <v>460179</v>
+        <v>1311.28</v>
       </c>
       <c r="O14" t="s">
         <v>231</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.000797928634458227</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.000949832378639495</v>
       </c>
     </row>
     <row r="15">
@@ -4333,43 +4333,43 @@
         <v>318946503</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>9134599449</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1031082627</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>202206474</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1780869</v>
       </c>
       <c r="J15" t="n">
         <v>15170247.93</v>
       </c>
       <c r="K15" t="n">
-        <v>2752715517</v>
+        <v>12933083.32</v>
       </c>
       <c r="L15" t="n">
-        <v>329068885</v>
+        <v>1546064.34</v>
       </c>
       <c r="M15" t="n">
-        <v>67401339</v>
+        <v>316671.71</v>
       </c>
       <c r="N15" t="n">
-        <v>79694478</v>
+        <v>374428.56</v>
       </c>
       <c r="O15" t="s">
         <v>233</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.00141583474920905</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.00151038069540193</v>
       </c>
     </row>
     <row r="16">
@@ -4386,43 +4386,43 @@
         <v>176330124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2796290589</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>275423541</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>48920448</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>572169</v>
       </c>
       <c r="J16" t="n">
         <v>6987732.12</v>
       </c>
       <c r="K16" t="n">
-        <v>843924901</v>
+        <v>5949923.73</v>
       </c>
       <c r="L16" t="n">
-        <v>87906116</v>
+        <v>619764.49</v>
       </c>
       <c r="M16" t="n">
-        <v>16306137</v>
+        <v>114963.16</v>
       </c>
       <c r="N16" t="n">
-        <v>42988347</v>
+        <v>303080.74</v>
       </c>
       <c r="O16" t="s">
         <v>235</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.00212779163703719</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.00226527290444097</v>
       </c>
     </row>
     <row r="17">
@@ -4439,13 +4439,13 @@
         <v>81617520</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>892774875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>109415850</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>76029462</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -4457,25 +4457,25 @@
         <v>825113.01</v>
       </c>
       <c r="K17" t="n">
-        <v>263052835</v>
+        <v>625907.88</v>
       </c>
       <c r="L17" t="n">
-        <v>36302175</v>
+        <v>86377.4</v>
       </c>
       <c r="M17" t="n">
-        <v>25343154</v>
+        <v>60301.52</v>
       </c>
       <c r="N17" t="n">
-        <v>22075392</v>
+        <v>52526.21</v>
       </c>
       <c r="O17" t="s">
         <v>237</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.000701081423242338</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.000790955125357928</v>
       </c>
     </row>
     <row r="18">
@@ -4492,43 +4492,43 @@
         <v>35438685</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2535125328</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>298167831</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>34321086</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>572169</v>
       </c>
       <c r="J18" t="n">
         <v>1359769.47</v>
       </c>
       <c r="K18" t="n">
-        <v>766238147</v>
+        <v>1176405.41</v>
       </c>
       <c r="L18" t="n">
-        <v>96592073</v>
+        <v>148297.81</v>
       </c>
       <c r="M18" t="n">
-        <v>11440122</v>
+        <v>17564.01</v>
       </c>
       <c r="N18" t="n">
-        <v>11399873</v>
+        <v>17502.24</v>
       </c>
       <c r="O18" t="s">
         <v>239</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.000464042308680685</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.000498849169158923</v>
       </c>
     </row>
     <row r="19">
@@ -4545,13 +4545,13 @@
         <v>69042672</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>751931319</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>90496734</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65475075</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -4563,25 +4563,25 @@
         <v>18373019.46</v>
       </c>
       <c r="K19" t="n">
-        <v>220605110</v>
+        <v>13931918.59</v>
       </c>
       <c r="L19" t="n">
-        <v>29995720</v>
+        <v>1894325.71</v>
       </c>
       <c r="M19" t="n">
-        <v>21825025</v>
+        <v>1378320.18</v>
       </c>
       <c r="N19" t="n">
-        <v>18501912</v>
+        <v>1168454.98</v>
       </c>
       <c r="O19" t="s">
         <v>242</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.0185281796860492</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.0209822910369655</v>
       </c>
     </row>
     <row r="20">
@@ -4598,43 +4598,43 @@
         <v>174073041</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2846458089</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>283072884</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>48920448</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>572169</v>
       </c>
       <c r="J20" t="n">
         <v>68403696.82</v>
       </c>
       <c r="K20" t="n">
-        <v>859416036</v>
+        <v>58326245.99</v>
       </c>
       <c r="L20" t="n">
-        <v>90440575</v>
+        <v>6137957.62</v>
       </c>
       <c r="M20" t="n">
-        <v>16306137</v>
+        <v>1106653.48</v>
       </c>
       <c r="N20" t="n">
-        <v>41740864</v>
+        <v>2832839.73</v>
       </c>
       <c r="O20" t="s">
         <v>244</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.020490814958913</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.0218215560425774</v>
       </c>
     </row>
     <row r="21">
@@ -4651,13 +4651,13 @@
         <v>84116787</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4895709540</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>618983925</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>64335774</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -4669,25 +4669,25 @@
         <v>11510330.39</v>
       </c>
       <c r="K21" t="n">
-        <v>1477742336</v>
+        <v>9916094.37</v>
       </c>
       <c r="L21" t="n">
-        <v>195801522</v>
+        <v>1313886.96</v>
       </c>
       <c r="M21" t="n">
-        <v>21445118</v>
+        <v>143903.18</v>
       </c>
       <c r="N21" t="n">
-        <v>20333796</v>
+        <v>136445.88</v>
       </c>
       <c r="O21" t="s">
         <v>246</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.00202546623507407</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.00213339399132411</v>
       </c>
     </row>
     <row r="22">
@@ -4704,13 +4704,13 @@
         <v>2134110</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1451115984</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>202494090</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43994784</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -4757,13 +4757,13 @@
         <v>12491127</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1741063848</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>250612482</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>46540566</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -4775,25 +4775,25 @@
         <v>6661849.86</v>
       </c>
       <c r="K23" t="n">
-        <v>528015720.477636</v>
+        <v>4415095.26563839</v>
       </c>
       <c r="L23" t="n">
-        <v>80324351.4623633</v>
+        <v>2087448.50891879</v>
       </c>
       <c r="M23" t="n">
-        <v>15611249.6193548</v>
+        <v>129287.548382648</v>
       </c>
       <c r="N23" t="n">
-        <v>3624688.27069735</v>
+        <v>30018.5370601722</v>
       </c>
       <c r="O23" t="s">
         <v>250</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.00253586062952839</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.00745991357726687</v>
       </c>
     </row>
     <row r="24">
@@ -4810,13 +4810,13 @@
         <v>65985120</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>5326088895</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>617807019</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>64335774</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -4828,25 +4828,25 @@
         <v>4755902.8</v>
       </c>
       <c r="K24" t="n">
-        <v>1609550392</v>
+        <v>4154732.42</v>
       </c>
       <c r="L24" t="n">
-        <v>195409220</v>
+        <v>504409.81</v>
       </c>
       <c r="M24" t="n">
-        <v>21445118</v>
+        <v>55356.29</v>
       </c>
       <c r="N24" t="n">
-        <v>16040086</v>
+        <v>41404.28</v>
       </c>
       <c r="O24" t="s">
         <v>252</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.000780071925555046</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.000820599595486747</v>
       </c>
     </row>
     <row r="25">
@@ -4863,43 +4863,43 @@
         <v>121206570</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>5473650864</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>636843222</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>64335774</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>918738</v>
       </c>
       <c r="J25" t="n">
         <v>121117930.23</v>
       </c>
       <c r="K25" t="n">
-        <v>1653930442</v>
+        <v>105106783.46</v>
       </c>
       <c r="L25" t="n">
-        <v>201752000</v>
+        <v>12821279.07</v>
       </c>
       <c r="M25" t="n">
-        <v>21447790</v>
+        <v>1363000.61</v>
       </c>
       <c r="N25" t="n">
-        <v>28747061</v>
+        <v>1826867.09</v>
       </c>
       <c r="O25" t="s">
         <v>254</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.0192023178078974</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.0202291850738781</v>
       </c>
     </row>
     <row r="26">
@@ -4916,13 +4916,13 @@
         <v>1728240</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>5078449470</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>620655498</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>63961038</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -4969,13 +4969,13 @@
         <v>953160</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>896102472</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>127914435</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>8981619</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -4987,25 +4987,25 @@
         <v>1374136.35</v>
       </c>
       <c r="K27" t="n">
-        <v>314812882.573078</v>
+        <v>1187964.58038629</v>
       </c>
       <c r="L27" t="n">
-        <v>49261584.8780972</v>
+        <v>173903.816196966</v>
       </c>
       <c r="M27" t="n">
-        <v>3478660.33346084</v>
+        <v>11182.6437904125</v>
       </c>
       <c r="N27" t="n">
-        <v>337610.521605531</v>
+        <v>1085.30962633363</v>
       </c>
       <c r="O27" t="s">
         <v>259</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.00132570171102741</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.00135202187776266</v>
       </c>
     </row>
     <row r="28">
@@ -5022,10 +5022,10 @@
         <v>550500</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>771013368</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>40186497</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>1076883.04</v>
       </c>
       <c r="K28" t="n">
-        <v>234602199</v>
+        <v>1017962.4</v>
       </c>
       <c r="L28" t="n">
-        <v>13395499</v>
+        <v>58124.42</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>183500</v>
+        <v>796.22</v>
       </c>
       <c r="O28" t="s">
         <v>262</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.00132029150498465</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.00144636692270043</v>
       </c>
     </row>
     <row r="29">
@@ -5075,13 +5075,13 @@
         <v>5662497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2978596617</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>452732001</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>22944750</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -5093,25 +5093,25 @@
         <v>1583188.98</v>
       </c>
       <c r="K29" t="n">
-        <v>905135439.970959</v>
+        <v>1357843.33941816</v>
       </c>
       <c r="L29" t="n">
-        <v>140762403.404409</v>
+        <v>211132.166003063</v>
       </c>
       <c r="M29" t="n">
-        <v>7655333.29308676</v>
+        <v>11473.2127829728</v>
       </c>
       <c r="N29" t="n">
-        <v>1828400.01275428</v>
+        <v>2740.26179580504</v>
       </c>
       <c r="O29" t="s">
         <v>264</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.000455866810453092</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.000467976158847494</v>
       </c>
     </row>
     <row r="30">
@@ -5128,13 +5128,13 @@
         <v>52558257</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4789639188</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>602213661</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>64298241</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -5146,25 +5146,25 @@
         <v>7689927.36</v>
       </c>
       <c r="K30" t="n">
-        <v>1445956062</v>
+        <v>6655880.32</v>
       </c>
       <c r="L30" t="n">
-        <v>190303942</v>
+        <v>875988.08</v>
       </c>
       <c r="M30" t="n">
-        <v>21432746</v>
+        <v>98657.07</v>
       </c>
       <c r="N30" t="n">
-        <v>12904753</v>
+        <v>59401.89</v>
       </c>
       <c r="O30" t="s">
         <v>266</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.00138964127750493</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.00146230719522845</v>
       </c>
     </row>
     <row r="31">
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>110377503</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -5214,7 +5214,7 @@
         <v>269</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.000511906216976117</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>61940574</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>271</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.000306772100626643</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>52053345</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>273</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.000413058757319054</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>37046880</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>275</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.0000296813118945509</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>172794999</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>277</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>0.000219924420382097</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>56416554</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>124659</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -5479,10 +5479,10 @@
         <v>279</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.000459782602106467</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.0004996831355939</v>
       </c>
     </row>
     <row r="37">
@@ -5499,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4222761</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3371550</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>281</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.0000469526927998056</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.0000500007414987172</v>
       </c>
     </row>
     <row r="38">
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>33043080</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -5585,7 +5585,7 @@
         <v>283</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.000605273176713551</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>31434507</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>285</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.00104980555285947</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -5658,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>17479221</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.0818858317541726</v>
       </c>
     </row>
     <row r="41">
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -5764,43 +5764,43 @@
         <v>75918294</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>158144883</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>8566803</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>12920790</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>293898</v>
       </c>
       <c r="J42" t="n">
         <v>475711.28</v>
       </c>
       <c r="K42" t="n">
-        <v>48565543</v>
+        <v>315185.5</v>
       </c>
       <c r="L42" t="n">
-        <v>2826127</v>
+        <v>18341.29</v>
       </c>
       <c r="M42" t="n">
-        <v>4306930</v>
+        <v>27951.54</v>
       </c>
       <c r="N42" t="n">
-        <v>17601648</v>
+        <v>114232.95</v>
       </c>
       <c r="O42" t="s">
         <v>291</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.00199301737761569</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.00215439812174402</v>
       </c>
     </row>
     <row r="43">
@@ -5817,13 +5817,13 @@
         <v>82846938</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>937306356</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>91514553</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65475075</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -5835,25 +5835,25 @@
         <v>1932452.64</v>
       </c>
       <c r="K43" t="n">
-        <v>277149416</v>
+        <v>1530751.66</v>
       </c>
       <c r="L43" t="n">
-        <v>30311613</v>
+        <v>167417.09</v>
       </c>
       <c r="M43" t="n">
-        <v>21825025</v>
+        <v>120543.99</v>
       </c>
       <c r="N43" t="n">
-        <v>20593118</v>
+        <v>113739.9</v>
       </c>
       <c r="O43" t="s">
         <v>293</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.00163313910142737</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.001834268184902</v>
       </c>
     </row>
     <row r="44">
@@ -5870,43 +5870,43 @@
         <v>15823680</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>33780705</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2849931</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>12920790</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>289962</v>
       </c>
       <c r="J44" t="n">
         <v>63763.31</v>
       </c>
       <c r="K44" t="n">
-        <v>10214461</v>
+        <v>33818.03</v>
       </c>
       <c r="L44" t="n">
-        <v>937977</v>
+        <v>3105.46</v>
       </c>
       <c r="M44" t="n">
-        <v>4306930</v>
+        <v>14259.38</v>
       </c>
       <c r="N44" t="n">
-        <v>3799816</v>
+        <v>12580.44</v>
       </c>
       <c r="O44" t="s">
         <v>295</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.00100110492069363</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.00110108092077718</v>
       </c>
     </row>
     <row r="45">
@@ -5923,10 +5923,10 @@
         <v>539748</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>10825374</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1191372</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -5935,31 +5935,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>289962</v>
       </c>
       <c r="J45" t="n">
         <v>5142.6</v>
       </c>
       <c r="K45" t="n">
-        <v>2999794</v>
+        <v>4314</v>
       </c>
       <c r="L45" t="n">
-        <v>391124</v>
+        <v>562.48</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>185050</v>
+        <v>266.12</v>
       </c>
       <c r="O45" t="s">
         <v>297</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.000398508171634532</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.000472127933172846</v>
       </c>
     </row>
     <row r="46">
@@ -5976,43 +5976,43 @@
         <v>24602175</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>108680385</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>22509246</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>23475177</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>289962</v>
       </c>
       <c r="J46" t="n">
         <v>2644352.87</v>
       </c>
       <c r="K46" t="n">
-        <v>32806077</v>
+        <v>1577644.23</v>
       </c>
       <c r="L46" t="n">
-        <v>7491071</v>
+        <v>360245.61</v>
       </c>
       <c r="M46" t="n">
-        <v>7825059</v>
+        <v>376307.09</v>
       </c>
       <c r="N46" t="n">
-        <v>6865376</v>
+        <v>330155.94</v>
       </c>
       <c r="O46" t="s">
         <v>299</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.0145163658557154</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.016017439209795</v>
       </c>
     </row>
     <row r="47">
@@ -6029,13 +6029,13 @@
         <v>14840409</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>36618303</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>19271172</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>23475177</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -6047,25 +6047,25 @@
         <v>104709.81</v>
       </c>
       <c r="K47" t="n">
-        <v>11215946</v>
+        <v>39101.02</v>
       </c>
       <c r="L47" t="n">
-        <v>6423713</v>
+        <v>22394.35</v>
       </c>
       <c r="M47" t="n">
-        <v>7825059</v>
+        <v>27279.72</v>
       </c>
       <c r="N47" t="n">
-        <v>4570795</v>
+        <v>15934.72</v>
       </c>
       <c r="O47" t="s">
         <v>301</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.00106779989231068</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>0.00116206579420385</v>
       </c>
     </row>
     <row r="48">
@@ -6082,10 +6082,10 @@
         <v>4925685</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>26266980</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>3180447</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -6135,13 +6135,13 @@
         <v>98969676</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>801256992</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>56756751</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>14636895</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -6153,25 +6153,25 @@
         <v>947443.57</v>
       </c>
       <c r="K49" t="n">
-        <v>239702165</v>
+        <v>796602.22</v>
       </c>
       <c r="L49" t="n">
-        <v>17814290</v>
+        <v>59202.22</v>
       </c>
       <c r="M49" t="n">
-        <v>4878387</v>
+        <v>16212.32</v>
       </c>
       <c r="N49" t="n">
-        <v>22696354</v>
+        <v>75426.81</v>
       </c>
       <c r="O49" t="s">
         <v>305</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>0.000994190662862883</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.00105632005402834</v>
       </c>
     </row>
     <row r="50">
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>32971305</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>307</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>0.000636927473753314</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -6241,43 +6241,43 @@
         <v>240291735</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1424648034</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>21749934</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>64966065</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>918738</v>
       </c>
       <c r="J51" t="n">
         <v>93827.65</v>
       </c>
       <c r="K51" t="n">
-        <v>433046216</v>
+        <v>78684.51</v>
       </c>
       <c r="L51" t="n">
-        <v>7246472</v>
+        <v>1316.68</v>
       </c>
       <c r="M51" t="n">
-        <v>21658351</v>
+        <v>3935.32</v>
       </c>
       <c r="N51" t="n">
-        <v>54436678</v>
+        <v>9891.14</v>
       </c>
       <c r="O51" t="s">
         <v>310</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>0.0000552308416690659</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>0.0000605655249384834</v>
       </c>
     </row>
     <row r="52">
@@ -6294,13 +6294,13 @@
         <v>72220467</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>54829254</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>7286370</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1255704</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -6312,25 +6312,25 @@
         <v>225249.03</v>
       </c>
       <c r="K52" t="n">
-        <v>16476678</v>
+        <v>99985.42</v>
       </c>
       <c r="L52" t="n">
-        <v>2428790</v>
+        <v>14738.64</v>
       </c>
       <c r="M52" t="n">
-        <v>418568</v>
+        <v>2539.98</v>
       </c>
       <c r="N52" t="n">
-        <v>17794933</v>
+        <v>107984.99</v>
       </c>
       <c r="O52" t="s">
         <v>312</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>0.0018235779753633</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>0.00202276636798042</v>
       </c>
     </row>
     <row r="53">
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>59816</v>
+        <v>1731.69</v>
       </c>
       <c r="O53" t="s">
         <v>314</v>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>194036</v>
+        <v>3898.94</v>
       </c>
       <c r="O54" t="s">
         <v>316</v>
@@ -6453,13 +6453,13 @@
         <v>90949074</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>474230172</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>6148746</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>63710361</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -6471,25 +6471,25 @@
         <v>5969378.91</v>
       </c>
       <c r="K55" t="n">
-        <v>144417263</v>
+        <v>4616990.95</v>
       </c>
       <c r="L55" t="n">
-        <v>2049258</v>
+        <v>65514.38</v>
       </c>
       <c r="M55" t="n">
-        <v>21237111</v>
+        <v>678946.2</v>
       </c>
       <c r="N55" t="n">
-        <v>19015676</v>
+        <v>607927.38</v>
       </c>
       <c r="O55" t="s">
         <v>318</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>0.0097357596007198</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>0.0106566002912119</v>
       </c>
     </row>
     <row r="56">
@@ -6506,13 +6506,13 @@
         <v>90888714</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>474230172</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>6148746</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>63710361</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -6524,25 +6524,25 @@
         <v>4369003.69</v>
       </c>
       <c r="K56" t="n">
-        <v>144417263</v>
+        <v>3379551.68</v>
       </c>
       <c r="L56" t="n">
-        <v>2049258</v>
+        <v>47955.3</v>
       </c>
       <c r="M56" t="n">
-        <v>21237111</v>
+        <v>496976.02</v>
       </c>
       <c r="N56" t="n">
-        <v>18995556</v>
+        <v>444520.69</v>
       </c>
       <c r="O56" t="s">
         <v>320</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>0.00712639532349283</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>0.00780043352114421</v>
       </c>
     </row>
     <row r="57">
@@ -6559,10 +6559,10 @@
         <v>6486996</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>18219270</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>152016</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -6612,13 +6612,13 @@
         <v>77845566</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>890267256</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>105609207</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>76029462</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -6630,25 +6630,25 @@
         <v>1024105.86</v>
       </c>
       <c r="K58" t="n">
-        <v>262278962</v>
+        <v>782351.92</v>
       </c>
       <c r="L58" t="n">
-        <v>35033294</v>
+        <v>104500.81</v>
       </c>
       <c r="M58" t="n">
-        <v>25343154</v>
+        <v>75596.1</v>
       </c>
       <c r="N58" t="n">
-        <v>20670165</v>
+        <v>61657.03</v>
       </c>
       <c r="O58" t="s">
         <v>324</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>0.000878783213385981</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>0.000991511945069362</v>
       </c>
     </row>
     <row r="59">
@@ -6665,13 +6665,13 @@
         <v>8120649</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>677484465</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>82234686</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>62394480</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -6683,25 +6683,25 @@
         <v>2143939.96</v>
       </c>
       <c r="K59" t="n">
-        <v>198725963</v>
+        <v>1707056.01</v>
       </c>
       <c r="L59" t="n">
-        <v>27226433</v>
+        <v>233875.05</v>
       </c>
       <c r="M59" t="n">
-        <v>20798160</v>
+        <v>178656.21</v>
       </c>
       <c r="N59" t="n">
-        <v>2835005</v>
+        <v>24352.69</v>
       </c>
       <c r="O59" t="s">
         <v>326</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>0.0025196976435467</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>0.00285233795789156</v>
       </c>
     </row>
     <row r="60">
@@ -6718,7 +6718,7 @@
         <v>230940</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>312054</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>9825.11</v>
       </c>
       <c r="K60" t="n">
-        <v>98018</v>
+        <v>5503.14</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -6745,13 +6745,13 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>76980</v>
+        <v>4321.97</v>
       </c>
       <c r="O60" t="s">
         <v>328</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>0.0176352169816762</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -6771,13 +6771,13 @@
         <v>1223580</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>17512917</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>19150167</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>10435317</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -6789,25 +6789,25 @@
         <v>141386.95</v>
       </c>
       <c r="K61" t="n">
-        <v>5331445</v>
+        <v>48562.5</v>
       </c>
       <c r="L61" t="n">
-        <v>6383378</v>
+        <v>58144.29</v>
       </c>
       <c r="M61" t="n">
-        <v>3478439</v>
+        <v>31684.07</v>
       </c>
       <c r="N61" t="n">
-        <v>328927</v>
+        <v>2996.09</v>
       </c>
       <c r="O61" t="s">
         <v>330</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>0.00277295324359728</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>0.0030362308759255</v>
       </c>
     </row>
     <row r="62">
@@ -6824,13 +6824,13 @@
         <v>1223580</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>17512917</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>19150167</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>10435317</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6842,25 +6842,25 @@
         <v>60918.39</v>
       </c>
       <c r="K62" t="n">
-        <v>5331445</v>
+        <v>20923.81</v>
       </c>
       <c r="L62" t="n">
-        <v>6383378</v>
+        <v>25052.19</v>
       </c>
       <c r="M62" t="n">
-        <v>3478439</v>
+        <v>13651.49</v>
       </c>
       <c r="N62" t="n">
-        <v>328927</v>
+        <v>1290.9</v>
       </c>
       <c r="O62" t="s">
         <v>332</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>0.00119476441303296</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>0.00130819830427652</v>
       </c>
     </row>
     <row r="63">
@@ -6877,10 +6877,10 @@
         <v>82360596</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>898276485</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>8314818</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -6889,31 +6889,31 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>918738</v>
       </c>
       <c r="J63" t="n">
         <v>744256.85</v>
       </c>
       <c r="K63" t="n">
-        <v>272997209</v>
+        <v>689672.84</v>
       </c>
       <c r="L63" t="n">
-        <v>2768424</v>
+        <v>6993.87</v>
       </c>
       <c r="M63" t="n">
-        <v>2672</v>
+        <v>6.76</v>
       </c>
       <c r="N63" t="n">
-        <v>18835205</v>
+        <v>47583.38</v>
       </c>
       <c r="O63" t="s">
         <v>334</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>0.00076777345451718</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>0.000841946269900315</v>
       </c>
     </row>
     <row r="64">
@@ -6930,10 +6930,10 @@
         <v>13040415</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1029594414</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>7191480</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -6948,25 +6948,25 @@
         <v>4278794.31</v>
       </c>
       <c r="K64" t="n">
-        <v>312106296</v>
+        <v>4204071.81</v>
       </c>
       <c r="L64" t="n">
-        <v>2396650</v>
+        <v>32282.87</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>3150678</v>
+        <v>42439.63</v>
       </c>
       <c r="O64" t="s">
         <v>336</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>0.00408323098186506</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>0.00448904397982057</v>
       </c>
     </row>
     <row r="65">
@@ -6983,10 +6983,10 @@
         <v>5930259</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>686069262</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>7191480</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -7001,25 +7001,25 @@
         <v>533625.33</v>
       </c>
       <c r="K65" t="n">
-        <v>207400296</v>
+        <v>523333.17</v>
       </c>
       <c r="L65" t="n">
-        <v>2396650</v>
+        <v>6047.47</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1682203</v>
+        <v>4244.69</v>
       </c>
       <c r="O65" t="s">
         <v>338</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.000762799325062897</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>0.000840921479306068</v>
       </c>
     </row>
     <row r="66">
@@ -7036,10 +7036,10 @@
         <v>11017767</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>700693545</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>7380441</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -7054,25 +7054,25 @@
         <v>11332275.63</v>
       </c>
       <c r="K66" t="n">
-        <v>211911080</v>
+        <v>11064449.67</v>
       </c>
       <c r="L66" t="n">
-        <v>2459637</v>
+        <v>128424.28</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>2669881</v>
+        <v>139401.68</v>
       </c>
       <c r="O66" t="s">
         <v>340</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>0.0157907115727747</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>0.0174006241632444</v>
       </c>
     </row>
     <row r="67">
@@ -7089,10 +7089,10 @@
         <v>27314568</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>95611134</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>230181</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -7101,31 +7101,31 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>918738</v>
       </c>
       <c r="J67" t="n">
         <v>326367.39</v>
       </c>
       <c r="K67" t="n">
-        <v>29299533</v>
+        <v>269500.04</v>
       </c>
       <c r="L67" t="n">
-        <v>76727</v>
+        <v>705.74</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>6105785</v>
+        <v>56161.61</v>
       </c>
       <c r="O67" t="s">
         <v>342</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>0.00281870979586959</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>0.00306602195663413</v>
       </c>
     </row>
     <row r="68">
@@ -7142,10 +7142,10 @@
         <v>5204190</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>375698631</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>6088785</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -7160,25 +7160,25 @@
         <v>557625.78</v>
       </c>
       <c r="K68" t="n">
-        <v>115911969</v>
+        <v>541192.96</v>
       </c>
       <c r="L68" t="n">
-        <v>2029595</v>
+        <v>9476.18</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1489961</v>
+        <v>6956.64</v>
       </c>
       <c r="O68" t="s">
         <v>344</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>0.00144049755667063</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>0.00155633348853671</v>
       </c>
     </row>
     <row r="69">
@@ -7195,7 +7195,7 @@
         <v>4010034</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>562173</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>2509.86</v>
       </c>
       <c r="K69" t="n">
-        <v>187391</v>
+        <v>340.91</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -7222,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1192257</v>
+        <v>2168.95</v>
       </c>
       <c r="O69" t="s">
         <v>346</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>0.000606414751330996</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -7248,7 +7248,7 @@
         <v>11586300</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>343084488</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>428075.2</v>
       </c>
       <c r="K70" t="n">
-        <v>104578122</v>
+        <v>417120.29</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -7275,13 +7275,13 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>2746552</v>
+        <v>10954.91</v>
       </c>
       <c r="O70" t="s">
         <v>348</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>0.00121579466454922</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -7301,13 +7301,13 @@
         <v>63238467</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>4662017055</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>567377085</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>64298241</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -7319,25 +7319,25 @@
         <v>3711542.97</v>
       </c>
       <c r="K71" t="n">
-        <v>1408573713</v>
+        <v>3220422.08</v>
       </c>
       <c r="L71" t="n">
-        <v>178599342</v>
+        <v>408331.68</v>
       </c>
       <c r="M71" t="n">
-        <v>21432746</v>
+        <v>49001.68</v>
       </c>
       <c r="N71" t="n">
-        <v>14778257</v>
+        <v>33787.53</v>
       </c>
       <c r="O71" t="s">
         <v>350</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>0.000690778699864709</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>0.00072400067119291</v>
       </c>
     </row>
     <row r="72">
@@ -7354,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1139667</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>270411</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -7372,10 +7372,10 @@
         <v>2794.48</v>
       </c>
       <c r="K72" t="n">
-        <v>343788</v>
+        <v>2214</v>
       </c>
       <c r="L72" t="n">
-        <v>90137</v>
+        <v>580.48</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -7387,10 +7387,10 @@
         <v>352</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>0.00194267272808636</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>0.00214665823505701</v>
       </c>
     </row>
     <row r="73">
@@ -7407,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>443935932</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>34570614</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>489358.83</v>
       </c>
       <c r="K73" t="n">
-        <v>135364902</v>
+        <v>450968.16</v>
       </c>
       <c r="L73" t="n">
-        <v>11523538</v>
+        <v>38390.67</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -7440,10 +7440,10 @@
         <v>355</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>0.00101584063711247</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>0.00111050009120463</v>
       </c>
     </row>
     <row r="74">
@@ -7460,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>443935932</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>34570614</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -7478,10 +7478,10 @@
         <v>2710385.49</v>
       </c>
       <c r="K74" t="n">
-        <v>135364902</v>
+        <v>2497753.17</v>
       </c>
       <c r="L74" t="n">
-        <v>11523538</v>
+        <v>212632.32</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -7493,10 +7493,10 @@
         <v>357</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>0.0056263820744296</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>0.00615066657479673</v>
       </c>
     </row>
     <row r="75">
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>129845946</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>50257272</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>0.000358166674864485</v>
       </c>
     </row>
     <row r="77">
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>4764531</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>363</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>0.00251861096086897</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -7672,13 +7672,13 @@
         <v>83404203</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>128730861</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>6148746</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>63710361</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7690,25 +7690,25 @@
         <v>88394.17</v>
       </c>
       <c r="K78" t="n">
-        <v>39074225</v>
+        <v>43407.58</v>
       </c>
       <c r="L78" t="n">
-        <v>2049258</v>
+        <v>2276.51</v>
       </c>
       <c r="M78" t="n">
-        <v>21237111</v>
+        <v>23592.3</v>
       </c>
       <c r="N78" t="n">
-        <v>17209269</v>
+        <v>19117.78</v>
       </c>
       <c r="O78" t="s">
         <v>365</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>0.000337196377487136</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>0.00037029975204235</v>
       </c>
     </row>
     <row r="79">
@@ -7725,13 +7725,13 @@
         <v>85710672</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>471542295</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>6148746</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>63710361</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7743,25 +7743,25 @@
         <v>1266600.39</v>
       </c>
       <c r="K79" t="n">
-        <v>143572329</v>
+        <v>984748.3</v>
       </c>
       <c r="L79" t="n">
-        <v>2049258</v>
+        <v>14055.63</v>
       </c>
       <c r="M79" t="n">
-        <v>21237111</v>
+        <v>145663.21</v>
       </c>
       <c r="N79" t="n">
-        <v>17806540</v>
+        <v>122133.25</v>
       </c>
       <c r="O79" t="s">
         <v>367</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>0.00208835625232727</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>0.00228629947989458</v>
       </c>
     </row>
     <row r="80">
@@ -7778,13 +7778,13 @@
         <v>34304709</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>100466508</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>5689335</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>63710361</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7796,25 +7796,25 @@
         <v>481742.55</v>
       </c>
       <c r="K80" t="n">
-        <v>30491550</v>
+        <v>241779.69</v>
       </c>
       <c r="L80" t="n">
-        <v>1896121</v>
+        <v>15035.1</v>
       </c>
       <c r="M80" t="n">
-        <v>21237111</v>
+        <v>168397.56</v>
       </c>
       <c r="N80" t="n">
-        <v>7129191</v>
+        <v>56530.2</v>
       </c>
       <c r="O80" t="s">
         <v>369</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>0.00240657005815311</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>0.00264313348000833</v>
       </c>
     </row>
     <row r="81">
@@ -7831,10 +7831,10 @@
         <v>6024066</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>2841867</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>386271</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -7849,25 +7849,25 @@
         <v>16670.81</v>
       </c>
       <c r="K81" t="n">
-        <v>875345</v>
+        <v>6482.63</v>
       </c>
       <c r="L81" t="n">
-        <v>128757</v>
+        <v>953.55</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1246945</v>
+        <v>9234.63</v>
       </c>
       <c r="O81" t="s">
         <v>371</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>0.002281116603979</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>0.00246860364873366</v>
       </c>
     </row>
     <row r="82">
@@ -7884,13 +7884,13 @@
         <v>740370</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>69709134</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2141055</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>63710361</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7902,25 +7902,25 @@
         <v>240626.87</v>
       </c>
       <c r="K82" t="n">
-        <v>21189420</v>
+        <v>117518.64</v>
       </c>
       <c r="L82" t="n">
-        <v>713685</v>
+        <v>3958.17</v>
       </c>
       <c r="M82" t="n">
-        <v>21236787</v>
+        <v>117781.35</v>
       </c>
       <c r="N82" t="n">
-        <v>246790</v>
+        <v>1368.71</v>
       </c>
       <c r="O82" t="s">
         <v>373</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>0.00168584277635697</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>0.00184870010995663</v>
       </c>
     </row>
   </sheetData>
@@ -7980,10 +7980,10 @@
         <v>13040415</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1029594414</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7191480</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -8003,13 +8003,13 @@
         <v>12491127</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1741063848</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>250612482</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>46540566</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10650402</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -8047,13 +8047,13 @@
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15267525</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2473659</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>31566</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>727842</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -8091,10 +8091,10 @@
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>10525554</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>44804985</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -8112,10 +8112,10 @@
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2273718</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>10045551</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -8135,13 +8135,13 @@
         <v>105519624</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>90211395</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11838207</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1025658</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -8160,19 +8160,19 @@
         <v>35438685</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2535125328</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>298167831</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>34321086</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>572169</v>
       </c>
     </row>
     <row r="11">
@@ -8189,19 +8189,19 @@
         <v>75918294</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>158144883</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8566803</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>12920790</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>293898</v>
       </c>
     </row>
     <row r="12">
@@ -8218,13 +8218,13 @@
         <v>98969676</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>801256992</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>56756751</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>14636895</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -8245,13 +8245,13 @@
         <v>72220467</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>54829254</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7286370</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1255704</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -8270,13 +8270,13 @@
         <v>77845566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>890267256</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>105609207</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>76029462</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -8297,15 +8297,15 @@
         <v>82360596</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>898276485</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>8314818</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>918738</v>
       </c>
     </row>
     <row r="16">
@@ -8322,13 +8322,13 @@
         <v>63238467</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4662017055</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>567377085</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>64298241</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -8349,13 +8349,13 @@
         <v>85710672</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>471542295</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6148746</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>63710361</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>

--- a/outputs/3_effective_rates_kendall.xlsx
+++ b/outputs/3_effective_rates_kendall.xlsx
@@ -1076,67 +1076,67 @@
     <t xml:space="preserve">tbl28_0470455100450</t>
   </si>
   <si>
+    <t xml:space="preserve">AURORA PUBLIC LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470455160374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470452400004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURORA SSA 34-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTGOMERY SSA 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEND SSA 18 MARQUIS POINTE VCMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THREE RIVERS LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470995160084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEWARD TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINOOKA FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470325100443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROY FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470995100677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINOOKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470322400052</t>
+  </si>
+  <si>
     <t xml:space="preserve">Municipal Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURORA PUBLIC LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470455160374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470452400004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURORA SSA 34-X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTGOMERY SSA 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMEND SSA 18 MARQUIS POINTE VCMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THREE RIVERS LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470995160084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEWARD TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINOOKA FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470325100443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TROY FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470995100677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINOOKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470322400052</t>
   </si>
   <si>
     <t xml:space="preserve">JOLIET PUBLIC LIBRARY</t>
@@ -7395,10 +7395,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" t="s">
         <v>353</v>
-      </c>
-      <c r="B73" t="s">
-        <v>354</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P73" t="n">
         <v>0.00101584063711247</v>
@@ -7451,7 +7451,7 @@
         <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P74" t="n">
         <v>0.0056263820744296</v>
@@ -7504,7 +7504,7 @@
         <v>267</v>
       </c>
       <c r="B75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -7557,7 +7557,7 @@
         <v>267</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>267</v>
       </c>
       <c r="B77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P77" t="n">
         <v>0.00251861096086897</v>
@@ -7663,7 +7663,7 @@
         <v>214</v>
       </c>
       <c r="B78" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>19117.78</v>
       </c>
       <c r="O78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P78" t="n">
         <v>0.000337196377487136</v>
@@ -7716,7 +7716,7 @@
         <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -7755,7 +7755,7 @@
         <v>122133.25</v>
       </c>
       <c r="O79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P79" t="n">
         <v>0.00208835625232727</v>
@@ -7769,7 +7769,7 @@
         <v>205</v>
       </c>
       <c r="B80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -7808,7 +7808,7 @@
         <v>56530.2</v>
       </c>
       <c r="O80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P80" t="n">
         <v>0.00240657005815311</v>
@@ -7822,7 +7822,7 @@
         <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -7861,7 +7861,7 @@
         <v>9234.63</v>
       </c>
       <c r="O81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P81" t="n">
         <v>0.002281116603979</v>
@@ -7875,7 +7875,7 @@
         <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>1368.71</v>
       </c>
       <c r="O82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P82" t="n">
         <v>0.00168584277635697</v>
@@ -7968,7 +7968,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
         <v>374</v>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
         <v>375</v>

--- a/outputs/3_effective_rates_kendall.xlsx
+++ b/outputs/3_effective_rates_kendall.xlsx
@@ -566,574 +566,574 @@
     <t xml:space="preserve">district_name</t>
   </si>
   <si>
+    <t xml:space="preserve">mv_farm_open_space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv_residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv_commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv_industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv_railroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext_tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext_res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext_com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext_ind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext_src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community College District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC 525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470996060525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENDALL CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470471010047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementary School District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470477040660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Protection District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWARK FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475100476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Preserve District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENDALL CO FOREST PRESERVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475200001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High School District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470477160180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C B PHILLIPS PUB LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475160339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Township</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIG GROVE TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanitary District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWARK SAN DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475090101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470472400057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470477040900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISBON-SEWARD FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475100380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISBON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470472400044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC 516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470456060516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRISTOL-KENDALL FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475100080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANO COMM LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475160338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRISTOL TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit School District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470477260880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U 115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470477261150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSWEGO FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475100525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YORKVILLE-BRISTOL SAN DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475090160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YORKVILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470472400096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSWEGO LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475160097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U 308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470477263080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Reclamation District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOX METRO WATER RECLAMATION DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470455090010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTGOMERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470452400054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOX VALLEY PKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470455080100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSWEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470472400062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSWEGOLAND PKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475080217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Service Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTGOMERY SSA 959#3 M CROSSING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTGOMERY SSA #7 BB CROSSING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YORKVILLE 04-SSA-201 FOX HILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSWEGO 04-SSA-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTG ACTIVE SSA 27 BB CROSSING W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTGOMERY SSA #16 BALMOREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSWEGO 05 SSA 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTGOMERY SSA 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTGOMERY SSA 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENDALL MRKTPL SSA 2006-113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS103act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCYV N BRIDGE SSA 2020-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOX TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITTLE ROCK-FOX FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475100383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDWICH PUB LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470195160370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLINGTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470472400052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U 430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470197264300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDWICH FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470195100602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLBROOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470472400053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENDALL TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNFLOWER ESTATES 2006-119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS107act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Township District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTI TWP DIST 1-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470475020301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISBON TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_047032704060C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470327161010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E 201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470327042010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470327161110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATTVILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470472400070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITTLE ROCK TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470472400066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U 429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470197264290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDWICH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470192400075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDWICH PKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470195080257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA AU SAY TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOLIET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470992400040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAINFIELD PKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470995080228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U 202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470997222020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAINFIELD FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470995100549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAINFIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470992400066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAINFIELD LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470995160239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOLIET PKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470995080147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSWEGO TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTGOMERY FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470455100450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURORA PUBLIC LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470455160374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470452400004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURORA SSA 34-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTGOMERY SSA 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEND SSA 18 MARQUIS POINTE VCMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clerk_SS128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THREE RIVERS LBRY DIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470995160084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEWARD TWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470473020076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINOOKA FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470325100443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROY FPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470995100677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINOOKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbl28_0470322400052</t>
+  </si>
+  <si>
     <t xml:space="preserve">mv_exempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv_farm_open_space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv_residential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv_commercial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv_industrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv_railroad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext_res</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext_com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext_ind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext_src</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community College District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC 525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470996060525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KENDALL CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470471010047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementary School District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E 66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470477040660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire Protection District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWARK FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475100476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest Preserve District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KENDALL CO FOREST PRESERVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475200001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High School District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470477160180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C B PHILLIPS PUB LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Township</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIG GROVE TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanitary District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWARK SAN DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475090101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470472400057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470477040900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISBON-SEWARD FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475100380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISBON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470472400044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC 516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470456060516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRISTOL-KENDALL FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475100080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLANO COMM LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475160338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRISTOL TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit School District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470477260880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U 115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470477261150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSWEGO FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475100525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YORKVILLE-BRISTOL SAN DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475090160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YORKVILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470472400096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSWEGO LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475160097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U 308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470477263080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Reclamation District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOX METRO WATER RECLAMATION DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470455090010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTGOMERY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470452400054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOX VALLEY PKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470455080100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSWEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470472400062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSWEGOLAND PKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475080217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Service Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTGOMERY SSA 959#3 M CROSSING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTGOMERY SSA #7 BB CROSSING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YORKVILLE 04-SSA-201 FOX HILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSWEGO 04-SSA-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTG ACTIVE SSA 27 BB CROSSING W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTGOMERY SSA #16 BALMOREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSWEGO 05 SSA 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTGOMERY SSA 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTGOMERY SSA 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KENDALL MRKTPL SSA 2006-113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS103act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCYV N BRIDGE SSA 2020-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOX TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LITTLE ROCK-FOX FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475100383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDWICH PUB LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470195160370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILLINGTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470472400052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U 430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470197264300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDWICH FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470195100602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILLBROOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470472400053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KENDALL TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUNFLOWER ESTATES 2006-119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS107act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-Township District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTI TWP DIST 1-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470475020301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISBON TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_047032704060C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H 101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470327161010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E 201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470327042010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H 111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470327161110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLATTVILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470472400070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LITTLE ROCK TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470472400066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U 429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470197264290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDWICH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470192400075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDWICH PKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470195080257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA AU SAY TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOLIET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470992400040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAINFIELD PKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470995080228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U 202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470997222020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAINFIELD FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470995100549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAINFIELD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470992400066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAINFIELD LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470995160239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOLIET PKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470995080147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSWEGO TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTGOMERY FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470455100450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURORA PUBLIC LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470455160374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470452400004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURORA SSA 34-X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTGOMERY SSA 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMEND SSA 18 MARQUIS POINTE VCMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clerk_SS128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THREE RIVERS LBRY DIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470995160084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEWARD TWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470473020076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINOOKA FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470325100443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TROY FPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470995100677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINOOKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl28_0470322400052</t>
   </si>
   <si>
     <t xml:space="preserve">Municipal Library</t>
@@ -3621,1567 +3621,1477 @@
         <v>194</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
         <v>196</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="n">
+        <v>378275544</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1427071494</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38983191</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65991723</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3936</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1570787.42</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1229887.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>36946.82</v>
+      </c>
+      <c r="L2" t="n">
+        <v>62581.87</v>
+      </c>
+      <c r="M2" t="n">
+        <v>241371.63</v>
+      </c>
+      <c r="N2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>378275544</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1427071494</v>
-      </c>
-      <c r="F2" t="n">
-        <v>38983191</v>
-      </c>
-      <c r="G2" t="n">
-        <v>65991723</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3936</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1570787.42</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1229887.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>36946.82</v>
-      </c>
-      <c r="M2" t="n">
-        <v>62581.87</v>
-      </c>
-      <c r="N2" t="n">
-        <v>241371.63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>198</v>
+      <c r="O2" t="n">
+        <v>0.000861825847668428</v>
       </c>
       <c r="P2" t="n">
-        <v>0.000861825847668428</v>
-      </c>
-      <c r="Q2" t="n">
         <v>0.000948118804841317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
         <v>199</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="n">
+        <v>697222047</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10561670943</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1070065818</v>
+      </c>
+      <c r="F3" t="n">
+        <v>268198197</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1784805</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22745842.77</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19160450</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2057714.01</v>
+      </c>
+      <c r="L3" t="n">
+        <v>537813.08</v>
+      </c>
+      <c r="M3" t="n">
+        <v>989865.68</v>
+      </c>
+      <c r="N3" t="s">
         <v>200</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>697222047</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10561670943</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1070065818</v>
-      </c>
-      <c r="G3" t="n">
-        <v>268198197</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1784805</v>
-      </c>
-      <c r="J3" t="n">
-        <v>22745842.77</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19160450</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2057714.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>537813.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>989865.68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>201</v>
+      <c r="O3" t="n">
+        <v>0.00181414949428045</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00181414949428045</v>
-      </c>
-      <c r="Q3" t="n">
         <v>0.00193947312406812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
         <v>202</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="n">
+        <v>118928958</v>
+      </c>
+      <c r="D4" t="n">
+        <v>163349136</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22060980</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1025658</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3936</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2456108.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1466597.68</v>
+      </c>
+      <c r="K4" t="n">
+        <v>218524.64</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10163.07</v>
+      </c>
+      <c r="M4" t="n">
+        <v>760822.96</v>
+      </c>
+      <c r="N4" t="s">
         <v>203</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>118928958</v>
-      </c>
-      <c r="E4" t="n">
-        <v>163349136</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22060980</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1025658</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3936</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2456108.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1466597.68</v>
-      </c>
-      <c r="L4" t="n">
-        <v>218524.64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10163.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>760822.96</v>
-      </c>
-      <c r="O4" t="s">
-        <v>204</v>
+      <c r="O4" t="n">
+        <v>0.00897830080962289</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00897830080962289</v>
-      </c>
-      <c r="Q4" t="n">
         <v>0.009905630694257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
         <v>205</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="n">
+        <v>116827320</v>
+      </c>
+      <c r="D5" t="n">
+        <v>127968696</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14622672</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1025658</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>293898</v>
+      </c>
+      <c r="I5" t="n">
+        <v>450636.55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>251239.45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31931.61</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2242.67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>165222.82</v>
+      </c>
+      <c r="N5" t="s">
         <v>206</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>116827320</v>
-      </c>
-      <c r="E5" t="n">
-        <v>127968696</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14622672</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1025658</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>293898</v>
-      </c>
-      <c r="J5" t="n">
-        <v>450636.55</v>
-      </c>
-      <c r="K5" t="n">
-        <v>251239.45</v>
-      </c>
-      <c r="L5" t="n">
-        <v>31931.61</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2242.67</v>
-      </c>
-      <c r="N5" t="n">
-        <v>165222.82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>207</v>
+      <c r="O5" t="n">
+        <v>0.00196328834983206</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00196328834983206</v>
-      </c>
-      <c r="Q5" t="n">
         <v>0.00218389310552628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
         <v>208</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="n">
+        <v>697222047</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10561670943</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1070065818</v>
+      </c>
+      <c r="F6" t="n">
+        <v>268198197</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1784805</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6125727.65</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5160138.47</v>
+      </c>
+      <c r="K6" t="n">
+        <v>554167.02</v>
+      </c>
+      <c r="L6" t="n">
+        <v>144839.49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>266582.67</v>
+      </c>
+      <c r="N6" t="s">
         <v>209</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>697222047</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10561670943</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1070065818</v>
-      </c>
-      <c r="G6" t="n">
-        <v>268198197</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1784805</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6125727.65</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5160138.47</v>
-      </c>
-      <c r="L6" t="n">
-        <v>554167.02</v>
-      </c>
-      <c r="M6" t="n">
-        <v>144839.49</v>
-      </c>
-      <c r="N6" t="n">
-        <v>266582.67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>210</v>
+      <c r="O6" t="n">
+        <v>0.000488572167969312</v>
       </c>
       <c r="P6" t="n">
-        <v>0.000488572167969312</v>
-      </c>
-      <c r="Q6" t="n">
         <v>0.00052232332496813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
         <v>211</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="n">
+        <v>205535982</v>
+      </c>
+      <c r="D7" t="n">
+        <v>205714515</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23614545</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2281362</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3936</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2762515.72</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1457875.43</v>
+      </c>
+      <c r="K7" t="n">
+        <v>185362.02</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17913.18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1101365.09</v>
+      </c>
+      <c r="N7" t="s">
         <v>212</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>205535982</v>
-      </c>
-      <c r="E7" t="n">
-        <v>205714515</v>
-      </c>
-      <c r="F7" t="n">
-        <v>23614545</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2281362</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3936</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2762515.72</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1457875.43</v>
-      </c>
-      <c r="L7" t="n">
-        <v>185362.02</v>
-      </c>
-      <c r="M7" t="n">
-        <v>17913.18</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1101365.09</v>
-      </c>
-      <c r="O7" t="s">
-        <v>213</v>
+      <c r="O7" t="n">
+        <v>0.00708688655246325</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00708688655246325</v>
-      </c>
-      <c r="Q7" t="n">
         <v>0.00784970381612816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
         <v>214</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="n">
+        <v>203207496</v>
+      </c>
+      <c r="D8" t="n">
+        <v>205714515</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23614545</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2281362</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3936</v>
+      </c>
+      <c r="I8" t="n">
+        <v>244178.81</v>
+      </c>
+      <c r="J8" t="n">
+        <v>129523.47</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16468.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1591.47</v>
+      </c>
+      <c r="M8" t="n">
+        <v>96595.57</v>
+      </c>
+      <c r="N8" t="s">
         <v>215</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>203207496</v>
-      </c>
-      <c r="E8" t="n">
-        <v>205714515</v>
-      </c>
-      <c r="F8" t="n">
-        <v>23614545</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2281362</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3936</v>
-      </c>
-      <c r="J8" t="n">
-        <v>244178.81</v>
-      </c>
-      <c r="K8" t="n">
-        <v>129523.47</v>
-      </c>
-      <c r="L8" t="n">
-        <v>16468.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1591.47</v>
-      </c>
-      <c r="N8" t="n">
-        <v>96595.57</v>
-      </c>
-      <c r="O8" t="s">
-        <v>216</v>
+      <c r="O8" t="n">
+        <v>0.000629627277394597</v>
       </c>
       <c r="P8" t="n">
-        <v>0.000629627277394597</v>
-      </c>
-      <c r="Q8" t="n">
         <v>0.000697398627512834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" t="s">
         <v>217</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="n">
+        <v>105519624</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90211395</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11838207</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1025658</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>293060.42</v>
+      </c>
+      <c r="J9" t="n">
+        <v>144947.68</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21444.84</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1858.16</v>
+      </c>
+      <c r="M9" t="n">
+        <v>124809.74</v>
+      </c>
+      <c r="N9" t="s">
         <v>218</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>105519624</v>
-      </c>
-      <c r="E9" t="n">
-        <v>90211395</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11838207</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1025658</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>293060.42</v>
-      </c>
-      <c r="K9" t="n">
-        <v>144947.68</v>
-      </c>
-      <c r="L9" t="n">
-        <v>21444.84</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1858.16</v>
-      </c>
-      <c r="N9" t="n">
-        <v>124809.74</v>
-      </c>
-      <c r="O9" t="s">
-        <v>219</v>
+      <c r="O9" t="n">
+        <v>0.00160675577625199</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00160675577625199</v>
-      </c>
-      <c r="Q9" t="n">
         <v>0.00181150843856026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s">
         <v>220</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="n">
+        <v>2328852</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64479588</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10796820</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1025658</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24139.96</v>
+      </c>
+      <c r="J10" t="n">
+        <v>19587.79</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3695.72</v>
+      </c>
+      <c r="L10" t="n">
+        <v>351.11</v>
+      </c>
+      <c r="M10" t="n">
+        <v>505.34</v>
+      </c>
+      <c r="N10" t="s">
         <v>221</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2328852</v>
-      </c>
-      <c r="E10" t="n">
-        <v>64479588</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10796820</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1025658</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>24139.96</v>
-      </c>
-      <c r="K10" t="n">
-        <v>19587.79</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3695.72</v>
-      </c>
-      <c r="M10" t="n">
-        <v>351.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>505.34</v>
-      </c>
-      <c r="O10" t="s">
-        <v>222</v>
+      <c r="O10" t="n">
+        <v>0.000303782803326845</v>
       </c>
       <c r="P10" t="n">
-        <v>0.000303782803326845</v>
-      </c>
-      <c r="Q10" t="n">
         <v>0.000342299643103586</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" t="s">
         <v>223</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="n">
+        <v>2234472</v>
+      </c>
+      <c r="D11" t="n">
+        <v>63964896</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10796820</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1025658</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>42061.58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>34121.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6492.17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>616.79</v>
+      </c>
+      <c r="M11" t="n">
+        <v>831.22</v>
+      </c>
+      <c r="N11" t="s">
         <v>224</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2234472</v>
-      </c>
-      <c r="E11" t="n">
-        <v>63964896</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10796820</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1025658</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>42061.58</v>
-      </c>
-      <c r="K11" t="n">
-        <v>34121.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6492.17</v>
-      </c>
-      <c r="M11" t="n">
-        <v>616.79</v>
-      </c>
-      <c r="N11" t="n">
-        <v>831.22</v>
-      </c>
-      <c r="O11" t="s">
-        <v>225</v>
+      <c r="O11" t="n">
+        <v>0.000533439466547401</v>
       </c>
       <c r="P11" t="n">
-        <v>0.000533439466547401</v>
-      </c>
-      <c r="Q11" t="n">
         <v>0.000601308794992048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="n">
+        <v>86949324</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42365379</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1553565</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1255704</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1033493.86</v>
+      </c>
+      <c r="J12" t="n">
+        <v>373190.12</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15394.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12443.02</v>
+      </c>
+      <c r="M12" t="n">
+        <v>632466.12</v>
+      </c>
+      <c r="N12" t="s">
         <v>226</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>86949324</v>
-      </c>
-      <c r="E12" t="n">
-        <v>42365379</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1553565</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1255704</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1033493.86</v>
-      </c>
-      <c r="K12" t="n">
-        <v>373190.12</v>
-      </c>
-      <c r="L12" t="n">
-        <v>15394.6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>12443.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>632466.12</v>
-      </c>
-      <c r="O12" t="s">
-        <v>227</v>
+      <c r="O12" t="n">
+        <v>0.00880884648760017</v>
       </c>
       <c r="P12" t="n">
-        <v>0.00880884648760017</v>
-      </c>
-      <c r="Q12" t="n">
         <v>0.00990920413815836</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" t="n">
+        <v>141576711</v>
+      </c>
+      <c r="D13" t="n">
+        <v>94187937</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1911663</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1255704</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>136290.55</v>
+      </c>
+      <c r="J13" t="n">
+        <v>62162.63</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1395.81</v>
+      </c>
+      <c r="L13" t="n">
+        <v>926.61</v>
+      </c>
+      <c r="M13" t="n">
+        <v>71805.5</v>
+      </c>
+      <c r="N13" t="s">
         <v>228</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>141576711</v>
-      </c>
-      <c r="E13" t="n">
-        <v>94187937</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1911663</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1255704</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>136290.55</v>
-      </c>
-      <c r="K13" t="n">
-        <v>62162.63</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1395.81</v>
-      </c>
-      <c r="M13" t="n">
-        <v>926.61</v>
-      </c>
-      <c r="N13" t="n">
-        <v>71805.5</v>
-      </c>
-      <c r="O13" t="s">
-        <v>229</v>
+      <c r="O13" t="n">
+        <v>0.000659985046705079</v>
       </c>
       <c r="P13" t="n">
-        <v>0.000659985046705079</v>
-      </c>
-      <c r="Q13" t="n">
         <v>0.000733233629067929</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1581039</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17531430</v>
+      </c>
+      <c r="E14" t="n">
+        <v>802245</v>
+      </c>
+      <c r="F14" t="n">
+        <v>561543</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16595.48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13988.83</v>
+      </c>
+      <c r="K14" t="n">
+        <v>762</v>
+      </c>
+      <c r="L14" t="n">
+        <v>533.37</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1311.28</v>
+      </c>
+      <c r="N14" t="s">
         <v>230</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1581039</v>
-      </c>
-      <c r="E14" t="n">
-        <v>17531430</v>
-      </c>
-      <c r="F14" t="n">
-        <v>802245</v>
-      </c>
-      <c r="G14" t="n">
-        <v>561543</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16595.48</v>
-      </c>
-      <c r="K14" t="n">
-        <v>13988.83</v>
-      </c>
-      <c r="L14" t="n">
-        <v>762</v>
-      </c>
-      <c r="M14" t="n">
-        <v>533.37</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1311.28</v>
-      </c>
-      <c r="O14" t="s">
-        <v>231</v>
+      <c r="O14" t="n">
+        <v>0.000797928634458227</v>
       </c>
       <c r="P14" t="n">
-        <v>0.000797928634458227</v>
-      </c>
-      <c r="Q14" t="n">
         <v>0.000949832378639495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="n">
+        <v>318946503</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9134599449</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1031082627</v>
+      </c>
+      <c r="F15" t="n">
+        <v>202206474</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1780869</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15170247.93</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12933083.32</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1546064.34</v>
+      </c>
+      <c r="L15" t="n">
+        <v>316671.71</v>
+      </c>
+      <c r="M15" t="n">
+        <v>374428.56</v>
+      </c>
+      <c r="N15" t="s">
         <v>232</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>318946503</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9134599449</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1031082627</v>
-      </c>
-      <c r="G15" t="n">
-        <v>202206474</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1780869</v>
-      </c>
-      <c r="J15" t="n">
-        <v>15170247.93</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12933083.32</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1546064.34</v>
-      </c>
-      <c r="M15" t="n">
-        <v>316671.71</v>
-      </c>
-      <c r="N15" t="n">
-        <v>374428.56</v>
-      </c>
-      <c r="O15" t="s">
-        <v>233</v>
+      <c r="O15" t="n">
+        <v>0.00141583474920905</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00141583474920905</v>
-      </c>
-      <c r="Q15" t="n">
         <v>0.00151038069540193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" t="n">
+        <v>176330124</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2796290589</v>
+      </c>
+      <c r="E16" t="n">
+        <v>275423541</v>
+      </c>
+      <c r="F16" t="n">
+        <v>48920448</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>572169</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6987732.12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5949923.73</v>
+      </c>
+      <c r="K16" t="n">
+        <v>619764.49</v>
+      </c>
+      <c r="L16" t="n">
+        <v>114963.16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>303080.74</v>
+      </c>
+      <c r="N16" t="s">
         <v>234</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>176330124</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2796290589</v>
-      </c>
-      <c r="F16" t="n">
-        <v>275423541</v>
-      </c>
-      <c r="G16" t="n">
-        <v>48920448</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>572169</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6987732.12</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5949923.73</v>
-      </c>
-      <c r="L16" t="n">
-        <v>619764.49</v>
-      </c>
-      <c r="M16" t="n">
-        <v>114963.16</v>
-      </c>
-      <c r="N16" t="n">
-        <v>303080.74</v>
-      </c>
-      <c r="O16" t="s">
-        <v>235</v>
+      <c r="O16" t="n">
+        <v>0.00212779163703719</v>
       </c>
       <c r="P16" t="n">
-        <v>0.00212779163703719</v>
-      </c>
-      <c r="Q16" t="n">
         <v>0.00226527290444097</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" t="n">
+        <v>81617520</v>
+      </c>
+      <c r="D17" t="n">
+        <v>892774875</v>
+      </c>
+      <c r="E17" t="n">
+        <v>109415850</v>
+      </c>
+      <c r="F17" t="n">
+        <v>76029462</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>825113.01</v>
+      </c>
+      <c r="J17" t="n">
+        <v>625907.88</v>
+      </c>
+      <c r="K17" t="n">
+        <v>86377.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>60301.52</v>
+      </c>
+      <c r="M17" t="n">
+        <v>52526.21</v>
+      </c>
+      <c r="N17" t="s">
         <v>236</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>81617520</v>
-      </c>
-      <c r="E17" t="n">
-        <v>892774875</v>
-      </c>
-      <c r="F17" t="n">
-        <v>109415850</v>
-      </c>
-      <c r="G17" t="n">
-        <v>76029462</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>825113.01</v>
-      </c>
-      <c r="K17" t="n">
-        <v>625907.88</v>
-      </c>
-      <c r="L17" t="n">
-        <v>86377.4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>60301.52</v>
-      </c>
-      <c r="N17" t="n">
-        <v>52526.21</v>
-      </c>
-      <c r="O17" t="s">
-        <v>237</v>
+      <c r="O17" t="n">
+        <v>0.000701081423242338</v>
       </c>
       <c r="P17" t="n">
-        <v>0.000701081423242338</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.000790955125357928</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35438685</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2535125328</v>
+      </c>
+      <c r="E18" t="n">
+        <v>298167831</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34321086</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>572169</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1359769.47</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1176405.41</v>
+      </c>
+      <c r="K18" t="n">
+        <v>148297.81</v>
+      </c>
+      <c r="L18" t="n">
+        <v>17564.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>17502.24</v>
+      </c>
+      <c r="N18" t="s">
         <v>238</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>35438685</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2535125328</v>
-      </c>
-      <c r="F18" t="n">
-        <v>298167831</v>
-      </c>
-      <c r="G18" t="n">
-        <v>34321086</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>572169</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1359769.47</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1176405.41</v>
-      </c>
-      <c r="L18" t="n">
-        <v>148297.81</v>
-      </c>
-      <c r="M18" t="n">
-        <v>17564.01</v>
-      </c>
-      <c r="N18" t="n">
-        <v>17502.24</v>
-      </c>
-      <c r="O18" t="s">
-        <v>239</v>
+      <c r="O18" t="n">
+        <v>0.000464042308680685</v>
       </c>
       <c r="P18" t="n">
-        <v>0.000464042308680685</v>
-      </c>
-      <c r="Q18" t="n">
         <v>0.000498849169158923</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
         <v>240</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="n">
+        <v>69042672</v>
+      </c>
+      <c r="D19" t="n">
+        <v>751931319</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90496734</v>
+      </c>
+      <c r="F19" t="n">
+        <v>65475075</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18373019.46</v>
+      </c>
+      <c r="J19" t="n">
+        <v>13931918.59</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1894325.71</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1378320.18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1168454.98</v>
+      </c>
+      <c r="N19" t="s">
         <v>241</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>69042672</v>
-      </c>
-      <c r="E19" t="n">
-        <v>751931319</v>
-      </c>
-      <c r="F19" t="n">
-        <v>90496734</v>
-      </c>
-      <c r="G19" t="n">
-        <v>65475075</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>18373019.46</v>
-      </c>
-      <c r="K19" t="n">
-        <v>13931918.59</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1894325.71</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1378320.18</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1168454.98</v>
-      </c>
-      <c r="O19" t="s">
-        <v>242</v>
+      <c r="O19" t="n">
+        <v>0.0185281796860492</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0185281796860492</v>
-      </c>
-      <c r="Q19" t="n">
         <v>0.0209822910369655</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" t="n">
+        <v>174073041</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2846458089</v>
+      </c>
+      <c r="E20" t="n">
+        <v>283072884</v>
+      </c>
+      <c r="F20" t="n">
+        <v>48920448</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>572169</v>
+      </c>
+      <c r="I20" t="n">
+        <v>68403696.82</v>
+      </c>
+      <c r="J20" t="n">
+        <v>58326245.99</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6137957.62</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1106653.48</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2832839.73</v>
+      </c>
+      <c r="N20" t="s">
         <v>243</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>174073041</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2846458089</v>
-      </c>
-      <c r="F20" t="n">
-        <v>283072884</v>
-      </c>
-      <c r="G20" t="n">
-        <v>48920448</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>572169</v>
-      </c>
-      <c r="J20" t="n">
-        <v>68403696.82</v>
-      </c>
-      <c r="K20" t="n">
-        <v>58326245.99</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6137957.62</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1106653.48</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2832839.73</v>
-      </c>
-      <c r="O20" t="s">
-        <v>244</v>
+      <c r="O20" t="n">
+        <v>0.020490814958913</v>
       </c>
       <c r="P20" t="n">
-        <v>0.020490814958913</v>
-      </c>
-      <c r="Q20" t="n">
         <v>0.0218215560425774</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" t="n">
+        <v>84116787</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4895709540</v>
+      </c>
+      <c r="E21" t="n">
+        <v>618983925</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64335774</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11510330.39</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9916094.37</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1313886.96</v>
+      </c>
+      <c r="L21" t="n">
+        <v>143903.18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>136445.88</v>
+      </c>
+      <c r="N21" t="s">
         <v>245</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>84116787</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4895709540</v>
-      </c>
-      <c r="F21" t="n">
-        <v>618983925</v>
-      </c>
-      <c r="G21" t="n">
-        <v>64335774</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>11510330.39</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9916094.37</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1313886.96</v>
-      </c>
-      <c r="M21" t="n">
-        <v>143903.18</v>
-      </c>
-      <c r="N21" t="n">
-        <v>136445.88</v>
-      </c>
-      <c r="O21" t="s">
-        <v>246</v>
+      <c r="O21" t="n">
+        <v>0.00202546623507407</v>
       </c>
       <c r="P21" t="n">
-        <v>0.00202546623507407</v>
-      </c>
-      <c r="Q21" t="n">
         <v>0.00213339399132411</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2134110</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1451115984</v>
+      </c>
+      <c r="E22" t="n">
+        <v>202494090</v>
+      </c>
+      <c r="F22" t="n">
+        <v>43994784</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
         <v>247</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2134110</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1451115984</v>
-      </c>
-      <c r="F22" t="n">
-        <v>202494090</v>
-      </c>
-      <c r="G22" t="n">
-        <v>43994784</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>248</v>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12491127</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1741063848</v>
+      </c>
+      <c r="E23" t="n">
+        <v>250612482</v>
+      </c>
+      <c r="F23" t="n">
+        <v>46540566</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6661849.86</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4415095.26563839</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2087448.50891879</v>
+      </c>
+      <c r="L23" t="n">
+        <v>129287.548382648</v>
+      </c>
+      <c r="M23" t="n">
+        <v>30018.5370601722</v>
+      </c>
+      <c r="N23" t="s">
         <v>249</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>12491127</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1741063848</v>
-      </c>
-      <c r="F23" t="n">
-        <v>250612482</v>
-      </c>
-      <c r="G23" t="n">
-        <v>46540566</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6661849.86</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4415095.26563839</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2087448.50891879</v>
-      </c>
-      <c r="M23" t="n">
-        <v>129287.548382648</v>
-      </c>
-      <c r="N23" t="n">
-        <v>30018.5370601722</v>
-      </c>
-      <c r="O23" t="s">
-        <v>250</v>
+      <c r="O23" t="n">
+        <v>0.00253586062952839</v>
       </c>
       <c r="P23" t="n">
-        <v>0.00253586062952839</v>
-      </c>
-      <c r="Q23" t="n">
         <v>0.00745991357726687</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65985120</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5326088895</v>
+      </c>
+      <c r="E24" t="n">
+        <v>617807019</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64335774</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4755902.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4154732.42</v>
+      </c>
+      <c r="K24" t="n">
+        <v>504409.81</v>
+      </c>
+      <c r="L24" t="n">
+        <v>55356.29</v>
+      </c>
+      <c r="M24" t="n">
+        <v>41404.28</v>
+      </c>
+      <c r="N24" t="s">
         <v>251</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>65985120</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5326088895</v>
-      </c>
-      <c r="F24" t="n">
-        <v>617807019</v>
-      </c>
-      <c r="G24" t="n">
-        <v>64335774</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4755902.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4154732.42</v>
-      </c>
-      <c r="L24" t="n">
-        <v>504409.81</v>
-      </c>
-      <c r="M24" t="n">
-        <v>55356.29</v>
-      </c>
-      <c r="N24" t="n">
-        <v>41404.28</v>
-      </c>
-      <c r="O24" t="s">
-        <v>252</v>
+      <c r="O24" t="n">
+        <v>0.000780071925555046</v>
       </c>
       <c r="P24" t="n">
-        <v>0.000780071925555046</v>
-      </c>
-      <c r="Q24" t="n">
         <v>0.000820599595486747</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" t="n">
+        <v>121206570</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5473650864</v>
+      </c>
+      <c r="E25" t="n">
+        <v>636843222</v>
+      </c>
+      <c r="F25" t="n">
+        <v>64335774</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>918738</v>
+      </c>
+      <c r="I25" t="n">
+        <v>121117930.23</v>
+      </c>
+      <c r="J25" t="n">
+        <v>105106783.46</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12821279.07</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1363000.61</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1826867.09</v>
+      </c>
+      <c r="N25" t="s">
         <v>253</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>121206570</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5473650864</v>
-      </c>
-      <c r="F25" t="n">
-        <v>636843222</v>
-      </c>
-      <c r="G25" t="n">
-        <v>64335774</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>918738</v>
-      </c>
-      <c r="J25" t="n">
-        <v>121117930.23</v>
-      </c>
-      <c r="K25" t="n">
-        <v>105106783.46</v>
-      </c>
-      <c r="L25" t="n">
-        <v>12821279.07</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1363000.61</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1826867.09</v>
-      </c>
-      <c r="O25" t="s">
-        <v>254</v>
+      <c r="O25" t="n">
+        <v>0.0192023178078974</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0192023178078974</v>
-      </c>
-      <c r="Q25" t="n">
         <v>0.0202291850738781</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" t="s">
         <v>255</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="n">
+        <v>1728240</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5078449470</v>
+      </c>
+      <c r="E26" t="n">
+        <v>620655498</v>
+      </c>
+      <c r="F26" t="n">
+        <v>63961038</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>256</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1728240</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5078449470</v>
-      </c>
-      <c r="F26" t="n">
-        <v>620655498</v>
-      </c>
-      <c r="G26" t="n">
-        <v>63961038</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>257</v>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="n">
+        <v>953160</v>
+      </c>
+      <c r="D27" t="n">
+        <v>896102472</v>
+      </c>
+      <c r="E27" t="n">
+        <v>127914435</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8981619</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1374136.35</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1187964.58038629</v>
+      </c>
+      <c r="K27" t="n">
+        <v>173903.816196966</v>
+      </c>
+      <c r="L27" t="n">
+        <v>11182.6437904125</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1085.30962633363</v>
+      </c>
+      <c r="N27" t="s">
         <v>258</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>953160</v>
-      </c>
-      <c r="E27" t="n">
-        <v>896102472</v>
-      </c>
-      <c r="F27" t="n">
-        <v>127914435</v>
-      </c>
-      <c r="G27" t="n">
-        <v>8981619</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1374136.35</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1187964.58038629</v>
-      </c>
-      <c r="L27" t="n">
-        <v>173903.816196966</v>
-      </c>
-      <c r="M27" t="n">
-        <v>11182.6437904125</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1085.30962633363</v>
-      </c>
-      <c r="O27" t="s">
-        <v>259</v>
+      <c r="O27" t="n">
+        <v>0.00132570171102741</v>
       </c>
       <c r="P27" t="n">
-        <v>0.00132570171102741</v>
-      </c>
-      <c r="Q27" t="n">
         <v>0.00135202187776266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" t="s">
         <v>260</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="n">
+        <v>550500</v>
+      </c>
+      <c r="D28" t="n">
+        <v>771013368</v>
+      </c>
+      <c r="E28" t="n">
+        <v>40186497</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1076883.04</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1017962.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>58124.42</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>796.22</v>
+      </c>
+      <c r="N28" t="s">
         <v>261</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>550500</v>
-      </c>
-      <c r="E28" t="n">
-        <v>771013368</v>
-      </c>
-      <c r="F28" t="n">
-        <v>40186497</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1076883.04</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1017962.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>58124.42</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>796.22</v>
-      </c>
-      <c r="O28" t="s">
-        <v>262</v>
+      <c r="O28" t="n">
+        <v>0.00132029150498465</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00132029150498465</v>
-      </c>
-      <c r="Q28" t="n">
         <v>0.00144636692270043</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5662497</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2978596617</v>
+      </c>
+      <c r="E29" t="n">
+        <v>452732001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>22944750</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1583188.98</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1357843.33941816</v>
+      </c>
+      <c r="K29" t="n">
+        <v>211132.166003063</v>
+      </c>
+      <c r="L29" t="n">
+        <v>11473.2127829728</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2740.26179580504</v>
+      </c>
+      <c r="N29" t="s">
         <v>263</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5662497</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2978596617</v>
-      </c>
-      <c r="F29" t="n">
-        <v>452732001</v>
-      </c>
-      <c r="G29" t="n">
-        <v>22944750</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1583188.98</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1357843.33941816</v>
-      </c>
-      <c r="L29" t="n">
-        <v>211132.166003063</v>
-      </c>
-      <c r="M29" t="n">
-        <v>11473.2127829728</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2740.26179580504</v>
-      </c>
-      <c r="O29" t="s">
-        <v>264</v>
+      <c r="O29" t="n">
+        <v>0.000455866810453092</v>
       </c>
       <c r="P29" t="n">
-        <v>0.000455866810453092</v>
-      </c>
-      <c r="Q29" t="n">
         <v>0.000467976158847494</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" t="n">
+        <v>52558257</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4789639188</v>
+      </c>
+      <c r="E30" t="n">
+        <v>602213661</v>
+      </c>
+      <c r="F30" t="n">
+        <v>64298241</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7689927.36</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6655880.32</v>
+      </c>
+      <c r="K30" t="n">
+        <v>875988.08</v>
+      </c>
+      <c r="L30" t="n">
+        <v>98657.07</v>
+      </c>
+      <c r="M30" t="n">
+        <v>59401.89</v>
+      </c>
+      <c r="N30" t="s">
         <v>265</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>52558257</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4789639188</v>
-      </c>
-      <c r="F30" t="n">
-        <v>602213661</v>
-      </c>
-      <c r="G30" t="n">
-        <v>64298241</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7689927.36</v>
-      </c>
-      <c r="K30" t="n">
-        <v>6655880.32</v>
-      </c>
-      <c r="L30" t="n">
-        <v>875988.08</v>
-      </c>
-      <c r="M30" t="n">
-        <v>98657.07</v>
-      </c>
-      <c r="N30" t="n">
-        <v>59401.89</v>
-      </c>
-      <c r="O30" t="s">
-        <v>266</v>
+      <c r="O30" t="n">
+        <v>0.00138964127750493</v>
       </c>
       <c r="P30" t="n">
-        <v>0.00138964127750493</v>
-      </c>
-      <c r="Q30" t="n">
         <v>0.00146230719522845</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" t="s">
         <v>267</v>
       </c>
-      <c r="B31" t="s">
-        <v>268</v>
-      </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>110377503</v>
       </c>
       <c r="E31" t="n">
-        <v>110377503</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -5193,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>56502.93</v>
       </c>
       <c r="J31" t="n">
         <v>56502.93</v>
       </c>
       <c r="K31" t="n">
-        <v>56502.93</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -5207,34 +5117,31 @@
       <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>269</v>
+      <c r="N31" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.000511906216976117</v>
       </c>
       <c r="P31" t="n">
-        <v>0.000511906216976117</v>
-      </c>
-      <c r="Q31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>61940574</v>
       </c>
       <c r="E32" t="n">
-        <v>61940574</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -5246,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>19001.64</v>
       </c>
       <c r="J32" t="n">
         <v>19001.64</v>
       </c>
       <c r="K32" t="n">
-        <v>19001.64</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -5260,34 +5167,31 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>271</v>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.000306772100626643</v>
       </c>
       <c r="P32" t="n">
-        <v>0.000306772100626643</v>
-      </c>
-      <c r="Q32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>52053345</v>
       </c>
       <c r="E33" t="n">
-        <v>52053345</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -5299,13 +5203,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>21501.09</v>
       </c>
       <c r="J33" t="n">
         <v>21501.09</v>
       </c>
       <c r="K33" t="n">
-        <v>21501.09</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -5313,34 +5217,31 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>273</v>
+      <c r="N33" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.000413058757319054</v>
       </c>
       <c r="P33" t="n">
-        <v>0.000413058757319054</v>
-      </c>
-      <c r="Q33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>37046880</v>
       </c>
       <c r="E34" t="n">
-        <v>37046880</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -5352,13 +5253,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1099.6</v>
       </c>
       <c r="J34" t="n">
         <v>1099.6</v>
       </c>
       <c r="K34" t="n">
-        <v>1099.6</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5366,34 +5267,31 @@
       <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>275</v>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0000296813118945509</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0000296813118945509</v>
-      </c>
-      <c r="Q34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>172794999</v>
       </c>
       <c r="E35" t="n">
-        <v>172794999</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -5405,13 +5303,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>38001.84</v>
       </c>
       <c r="J35" t="n">
         <v>38001.84</v>
       </c>
       <c r="K35" t="n">
-        <v>38001.84</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5419,140 +5317,131 @@
       <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>277</v>
+      <c r="N35" t="s">
+        <v>276</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.000219924420382097</v>
       </c>
       <c r="P35" t="n">
-        <v>0.000219924420382097</v>
-      </c>
-      <c r="Q35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>56416554</v>
+      </c>
+      <c r="E36" t="n">
+        <v>124659</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>26001.64</v>
+      </c>
+      <c r="J36" t="n">
+        <v>25939.35</v>
+      </c>
+      <c r="K36" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.000000000000866862137627322</v>
+      </c>
+      <c r="N36" t="s">
         <v>278</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>56416554</v>
-      </c>
-      <c r="F36" t="n">
-        <v>124659</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>26001.64</v>
-      </c>
-      <c r="K36" t="n">
-        <v>25939.35</v>
-      </c>
-      <c r="L36" t="n">
-        <v>62.29</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.000000000000866862137627322</v>
-      </c>
-      <c r="O36" t="s">
-        <v>279</v>
+      <c r="O36" t="n">
+        <v>0.000459782602106467</v>
       </c>
       <c r="P36" t="n">
-        <v>0.000459782602106467</v>
-      </c>
-      <c r="Q36" t="n">
         <v>0.0004996831355939</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4222761</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3371550</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>366.85</v>
+      </c>
+      <c r="J37" t="n">
+        <v>198.27</v>
+      </c>
+      <c r="K37" t="n">
+        <v>168.58</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.000000000000028421709430404</v>
+      </c>
+      <c r="N37" t="s">
         <v>280</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4222761</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3371550</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>366.85</v>
-      </c>
-      <c r="K37" t="n">
-        <v>198.27</v>
-      </c>
-      <c r="L37" t="n">
-        <v>168.58</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.000000000000028421709430404</v>
-      </c>
-      <c r="O37" t="s">
-        <v>281</v>
+      <c r="O37" t="n">
+        <v>0.0000469526927998056</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0000469526927998056</v>
-      </c>
-      <c r="Q37" t="n">
         <v>0.0000500007414987172</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>33043080</v>
       </c>
       <c r="E38" t="n">
-        <v>33043080</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -5564,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>20000.09</v>
       </c>
       <c r="J38" t="n">
         <v>20000.09</v>
       </c>
       <c r="K38" t="n">
-        <v>20000.09</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5578,34 +5467,31 @@
       <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="s">
-        <v>283</v>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.000605273176713551</v>
       </c>
       <c r="P38" t="n">
-        <v>0.000605273176713551</v>
-      </c>
-      <c r="Q38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>31434507</v>
       </c>
       <c r="E39" t="n">
-        <v>31434507</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5617,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>33000.12</v>
       </c>
       <c r="J39" t="n">
         <v>33000.12</v>
       </c>
       <c r="K39" t="n">
-        <v>33000.12</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5631,564 +5517,531 @@
       <c r="M39" t="n">
         <v>0</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="s">
-        <v>285</v>
+      <c r="N39" t="s">
+        <v>284</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.00104980555285947</v>
       </c>
       <c r="P39" t="n">
-        <v>0.00104980555285947</v>
-      </c>
-      <c r="Q39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>282</v>
+      </c>
+      <c r="E40" t="n">
+        <v>17479221</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1431300.55</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1431300.55</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
         <v>286</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>282</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17479221</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1431300.55</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1431300.55</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>287</v>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
         <v>0.0818858317541726</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>288</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>289</v>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" t="n">
+        <v>75918294</v>
+      </c>
+      <c r="D42" t="n">
+        <v>158144883</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8566803</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12920790</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>293898</v>
+      </c>
+      <c r="I42" t="n">
+        <v>475711.28</v>
+      </c>
+      <c r="J42" t="n">
+        <v>315185.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>18341.29</v>
+      </c>
+      <c r="L42" t="n">
+        <v>27951.54</v>
+      </c>
+      <c r="M42" t="n">
+        <v>114232.95</v>
+      </c>
+      <c r="N42" t="s">
         <v>290</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>75918294</v>
-      </c>
-      <c r="E42" t="n">
-        <v>158144883</v>
-      </c>
-      <c r="F42" t="n">
-        <v>8566803</v>
-      </c>
-      <c r="G42" t="n">
-        <v>12920790</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>293898</v>
-      </c>
-      <c r="J42" t="n">
-        <v>475711.28</v>
-      </c>
-      <c r="K42" t="n">
-        <v>315185.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>18341.29</v>
-      </c>
-      <c r="M42" t="n">
-        <v>27951.54</v>
-      </c>
-      <c r="N42" t="n">
-        <v>114232.95</v>
-      </c>
-      <c r="O42" t="s">
-        <v>291</v>
+      <c r="O42" t="n">
+        <v>0.00199301737761569</v>
       </c>
       <c r="P42" t="n">
-        <v>0.00199301737761569</v>
-      </c>
-      <c r="Q42" t="n">
         <v>0.00215439812174402</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" t="n">
+        <v>82846938</v>
+      </c>
+      <c r="D43" t="n">
+        <v>937306356</v>
+      </c>
+      <c r="E43" t="n">
+        <v>91514553</v>
+      </c>
+      <c r="F43" t="n">
+        <v>65475075</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1932452.64</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1530751.66</v>
+      </c>
+      <c r="K43" t="n">
+        <v>167417.09</v>
+      </c>
+      <c r="L43" t="n">
+        <v>120543.99</v>
+      </c>
+      <c r="M43" t="n">
+        <v>113739.9</v>
+      </c>
+      <c r="N43" t="s">
         <v>292</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>82846938</v>
-      </c>
-      <c r="E43" t="n">
-        <v>937306356</v>
-      </c>
-      <c r="F43" t="n">
-        <v>91514553</v>
-      </c>
-      <c r="G43" t="n">
-        <v>65475075</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1932452.64</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1530751.66</v>
-      </c>
-      <c r="L43" t="n">
-        <v>167417.09</v>
-      </c>
-      <c r="M43" t="n">
-        <v>120543.99</v>
-      </c>
-      <c r="N43" t="n">
-        <v>113739.9</v>
-      </c>
-      <c r="O43" t="s">
-        <v>293</v>
+      <c r="O43" t="n">
+        <v>0.00163313910142737</v>
       </c>
       <c r="P43" t="n">
-        <v>0.00163313910142737</v>
-      </c>
-      <c r="Q43" t="n">
         <v>0.001834268184902</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" t="n">
+        <v>15823680</v>
+      </c>
+      <c r="D44" t="n">
+        <v>33780705</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2849931</v>
+      </c>
+      <c r="F44" t="n">
+        <v>12920790</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>289962</v>
+      </c>
+      <c r="I44" t="n">
+        <v>63763.31</v>
+      </c>
+      <c r="J44" t="n">
+        <v>33818.03</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3105.46</v>
+      </c>
+      <c r="L44" t="n">
+        <v>14259.38</v>
+      </c>
+      <c r="M44" t="n">
+        <v>12580.44</v>
+      </c>
+      <c r="N44" t="s">
         <v>294</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>15823680</v>
-      </c>
-      <c r="E44" t="n">
-        <v>33780705</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2849931</v>
-      </c>
-      <c r="G44" t="n">
-        <v>12920790</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>289962</v>
-      </c>
-      <c r="J44" t="n">
-        <v>63763.31</v>
-      </c>
-      <c r="K44" t="n">
-        <v>33818.03</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3105.46</v>
-      </c>
-      <c r="M44" t="n">
-        <v>14259.38</v>
-      </c>
-      <c r="N44" t="n">
-        <v>12580.44</v>
-      </c>
-      <c r="O44" t="s">
-        <v>295</v>
+      <c r="O44" t="n">
+        <v>0.00100110492069363</v>
       </c>
       <c r="P44" t="n">
-        <v>0.00100110492069363</v>
-      </c>
-      <c r="Q44" t="n">
         <v>0.00110108092077718</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" t="n">
+        <v>539748</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10825374</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1191372</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>289962</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5142.6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4314</v>
+      </c>
+      <c r="K45" t="n">
+        <v>562.48</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>266.12</v>
+      </c>
+      <c r="N45" t="s">
         <v>296</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>539748</v>
-      </c>
-      <c r="E45" t="n">
-        <v>10825374</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1191372</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>289962</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5142.6</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4314</v>
-      </c>
-      <c r="L45" t="n">
-        <v>562.48</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>266.12</v>
-      </c>
-      <c r="O45" t="s">
-        <v>297</v>
+      <c r="O45" t="n">
+        <v>0.000398508171634532</v>
       </c>
       <c r="P45" t="n">
-        <v>0.000398508171634532</v>
-      </c>
-      <c r="Q45" t="n">
         <v>0.000472127933172846</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" t="n">
+        <v>24602175</v>
+      </c>
+      <c r="D46" t="n">
+        <v>108680385</v>
+      </c>
+      <c r="E46" t="n">
+        <v>22509246</v>
+      </c>
+      <c r="F46" t="n">
+        <v>23475177</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>289962</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2644352.87</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1577644.23</v>
+      </c>
+      <c r="K46" t="n">
+        <v>360245.61</v>
+      </c>
+      <c r="L46" t="n">
+        <v>376307.09</v>
+      </c>
+      <c r="M46" t="n">
+        <v>330155.94</v>
+      </c>
+      <c r="N46" t="s">
         <v>298</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>24602175</v>
-      </c>
-      <c r="E46" t="n">
-        <v>108680385</v>
-      </c>
-      <c r="F46" t="n">
-        <v>22509246</v>
-      </c>
-      <c r="G46" t="n">
-        <v>23475177</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>289962</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2644352.87</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1577644.23</v>
-      </c>
-      <c r="L46" t="n">
-        <v>360245.61</v>
-      </c>
-      <c r="M46" t="n">
-        <v>376307.09</v>
-      </c>
-      <c r="N46" t="n">
-        <v>330155.94</v>
-      </c>
-      <c r="O46" t="s">
-        <v>299</v>
+      <c r="O46" t="n">
+        <v>0.0145163658557154</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0145163658557154</v>
-      </c>
-      <c r="Q46" t="n">
         <v>0.016017439209795</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" t="n">
+        <v>14840409</v>
+      </c>
+      <c r="D47" t="n">
+        <v>36618303</v>
+      </c>
+      <c r="E47" t="n">
+        <v>19271172</v>
+      </c>
+      <c r="F47" t="n">
+        <v>23475177</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>104709.81</v>
+      </c>
+      <c r="J47" t="n">
+        <v>39101.02</v>
+      </c>
+      <c r="K47" t="n">
+        <v>22394.35</v>
+      </c>
+      <c r="L47" t="n">
+        <v>27279.72</v>
+      </c>
+      <c r="M47" t="n">
+        <v>15934.72</v>
+      </c>
+      <c r="N47" t="s">
         <v>300</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>14840409</v>
-      </c>
-      <c r="E47" t="n">
-        <v>36618303</v>
-      </c>
-      <c r="F47" t="n">
-        <v>19271172</v>
-      </c>
-      <c r="G47" t="n">
-        <v>23475177</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>104709.81</v>
-      </c>
-      <c r="K47" t="n">
-        <v>39101.02</v>
-      </c>
-      <c r="L47" t="n">
-        <v>22394.35</v>
-      </c>
-      <c r="M47" t="n">
-        <v>27279.72</v>
-      </c>
-      <c r="N47" t="n">
-        <v>15934.72</v>
-      </c>
-      <c r="O47" t="s">
-        <v>301</v>
+      <c r="O47" t="n">
+        <v>0.00106779989231068</v>
       </c>
       <c r="P47" t="n">
-        <v>0.00106779989231068</v>
-      </c>
-      <c r="Q47" t="n">
         <v>0.00116206579420385</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4925685</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26266980</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3180447</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>302</v>
       </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4925685</v>
-      </c>
-      <c r="E48" t="n">
-        <v>26266980</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3180447</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
-        <v>303</v>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" t="n">
+        <v>98969676</v>
+      </c>
+      <c r="D49" t="n">
+        <v>801256992</v>
+      </c>
+      <c r="E49" t="n">
+        <v>56756751</v>
+      </c>
+      <c r="F49" t="n">
+        <v>14636895</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>947443.57</v>
+      </c>
+      <c r="J49" t="n">
+        <v>796602.22</v>
+      </c>
+      <c r="K49" t="n">
+        <v>59202.22</v>
+      </c>
+      <c r="L49" t="n">
+        <v>16212.32</v>
+      </c>
+      <c r="M49" t="n">
+        <v>75426.81</v>
+      </c>
+      <c r="N49" t="s">
         <v>304</v>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>98969676</v>
-      </c>
-      <c r="E49" t="n">
-        <v>801256992</v>
-      </c>
-      <c r="F49" t="n">
-        <v>56756751</v>
-      </c>
-      <c r="G49" t="n">
-        <v>14636895</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>947443.57</v>
-      </c>
-      <c r="K49" t="n">
-        <v>796602.22</v>
-      </c>
-      <c r="L49" t="n">
-        <v>59202.22</v>
-      </c>
-      <c r="M49" t="n">
-        <v>16212.32</v>
-      </c>
-      <c r="N49" t="n">
-        <v>75426.81</v>
-      </c>
-      <c r="O49" t="s">
-        <v>305</v>
+      <c r="O49" t="n">
+        <v>0.000994190662862883</v>
       </c>
       <c r="P49" t="n">
-        <v>0.000994190662862883</v>
-      </c>
-      <c r="Q49" t="n">
         <v>0.00105632005402834</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>32971305</v>
       </c>
       <c r="E50" t="n">
-        <v>32971305</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -6200,13 +6053,13 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>21000.33</v>
       </c>
       <c r="J50" t="n">
         <v>21000.33</v>
       </c>
       <c r="K50" t="n">
-        <v>21000.33</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -6214,1412 +6067,1331 @@
       <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>307</v>
+      <c r="N50" t="s">
+        <v>306</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.000636927473753314</v>
       </c>
       <c r="P50" t="n">
-        <v>0.000636927473753314</v>
-      </c>
-      <c r="Q50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>307</v>
+      </c>
+      <c r="B51" t="s">
         <v>308</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="n">
+        <v>240291735</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1424648034</v>
+      </c>
+      <c r="E51" t="n">
+        <v>21749934</v>
+      </c>
+      <c r="F51" t="n">
+        <v>64966065</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>918738</v>
+      </c>
+      <c r="I51" t="n">
+        <v>93827.65</v>
+      </c>
+      <c r="J51" t="n">
+        <v>78684.51</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1316.68</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3935.32</v>
+      </c>
+      <c r="M51" t="n">
+        <v>9891.14</v>
+      </c>
+      <c r="N51" t="s">
         <v>309</v>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>240291735</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1424648034</v>
-      </c>
-      <c r="F51" t="n">
-        <v>21749934</v>
-      </c>
-      <c r="G51" t="n">
-        <v>64966065</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>918738</v>
-      </c>
-      <c r="J51" t="n">
-        <v>93827.65</v>
-      </c>
-      <c r="K51" t="n">
-        <v>78684.51</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1316.68</v>
-      </c>
-      <c r="M51" t="n">
-        <v>3935.32</v>
-      </c>
-      <c r="N51" t="n">
-        <v>9891.14</v>
-      </c>
-      <c r="O51" t="s">
-        <v>310</v>
+      <c r="O51" t="n">
+        <v>0.0000552308416690659</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0000552308416690659</v>
-      </c>
-      <c r="Q51" t="n">
         <v>0.0000605655249384834</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
+        <v>310</v>
+      </c>
+      <c r="C52" t="n">
+        <v>72220467</v>
+      </c>
+      <c r="D52" t="n">
+        <v>54829254</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7286370</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1255704</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>225249.03</v>
+      </c>
+      <c r="J52" t="n">
+        <v>99985.42</v>
+      </c>
+      <c r="K52" t="n">
+        <v>14738.64</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2539.98</v>
+      </c>
+      <c r="M52" t="n">
+        <v>107984.99</v>
+      </c>
+      <c r="N52" t="s">
         <v>311</v>
       </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>72220467</v>
-      </c>
-      <c r="E52" t="n">
-        <v>54829254</v>
-      </c>
-      <c r="F52" t="n">
-        <v>7286370</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1255704</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>225249.03</v>
-      </c>
-      <c r="K52" t="n">
-        <v>99985.42</v>
-      </c>
-      <c r="L52" t="n">
-        <v>14738.64</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2539.98</v>
-      </c>
-      <c r="N52" t="n">
-        <v>107984.99</v>
-      </c>
-      <c r="O52" t="s">
-        <v>312</v>
+      <c r="O52" t="n">
+        <v>0.0018235779753633</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0018235779753633</v>
-      </c>
-      <c r="Q52" t="n">
         <v>0.00202276636798042</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B53" t="s">
+        <v>312</v>
+      </c>
+      <c r="C53" t="n">
+        <v>221526</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1731.69</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1731.69</v>
+      </c>
+      <c r="N53" t="s">
         <v>313</v>
       </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>221526</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1731.69</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1731.69</v>
-      </c>
-      <c r="O53" t="s">
-        <v>314</v>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B54" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" t="n">
+        <v>624186</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3898.94</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3898.94</v>
+      </c>
+      <c r="N54" t="s">
         <v>315</v>
       </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>624186</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3898.94</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>3898.94</v>
-      </c>
-      <c r="O54" t="s">
-        <v>316</v>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" t="n">
+        <v>90949074</v>
+      </c>
+      <c r="D55" t="n">
+        <v>474230172</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6148746</v>
+      </c>
+      <c r="F55" t="n">
+        <v>63710361</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5969378.91</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4616990.95</v>
+      </c>
+      <c r="K55" t="n">
+        <v>65514.38</v>
+      </c>
+      <c r="L55" t="n">
+        <v>678946.2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>607927.38</v>
+      </c>
+      <c r="N55" t="s">
         <v>317</v>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>90949074</v>
-      </c>
-      <c r="E55" t="n">
-        <v>474230172</v>
-      </c>
-      <c r="F55" t="n">
-        <v>6148746</v>
-      </c>
-      <c r="G55" t="n">
-        <v>63710361</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5969378.91</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4616990.95</v>
-      </c>
-      <c r="L55" t="n">
-        <v>65514.38</v>
-      </c>
-      <c r="M55" t="n">
-        <v>678946.2</v>
-      </c>
-      <c r="N55" t="n">
-        <v>607927.38</v>
-      </c>
-      <c r="O55" t="s">
-        <v>318</v>
+      <c r="O55" t="n">
+        <v>0.0097357596007198</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0097357596007198</v>
-      </c>
-      <c r="Q55" t="n">
         <v>0.0106566002912119</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" t="n">
+        <v>90888714</v>
+      </c>
+      <c r="D56" t="n">
+        <v>474230172</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6148746</v>
+      </c>
+      <c r="F56" t="n">
+        <v>63710361</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4369003.69</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3379551.68</v>
+      </c>
+      <c r="K56" t="n">
+        <v>47955.3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>496976.02</v>
+      </c>
+      <c r="M56" t="n">
+        <v>444520.69</v>
+      </c>
+      <c r="N56" t="s">
         <v>319</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>90888714</v>
-      </c>
-      <c r="E56" t="n">
-        <v>474230172</v>
-      </c>
-      <c r="F56" t="n">
-        <v>6148746</v>
-      </c>
-      <c r="G56" t="n">
-        <v>63710361</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4369003.69</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3379551.68</v>
-      </c>
-      <c r="L56" t="n">
-        <v>47955.3</v>
-      </c>
-      <c r="M56" t="n">
-        <v>496976.02</v>
-      </c>
-      <c r="N56" t="n">
-        <v>444520.69</v>
-      </c>
-      <c r="O56" t="s">
-        <v>320</v>
+      <c r="O56" t="n">
+        <v>0.00712639532349283</v>
       </c>
       <c r="P56" t="n">
-        <v>0.00712639532349283</v>
-      </c>
-      <c r="Q56" t="n">
         <v>0.00780043352114421</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6486996</v>
+      </c>
+      <c r="D57" t="n">
+        <v>18219270</v>
+      </c>
+      <c r="E57" t="n">
+        <v>152016</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>321</v>
       </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6486996</v>
-      </c>
-      <c r="E57" t="n">
-        <v>18219270</v>
-      </c>
-      <c r="F57" t="n">
-        <v>152016</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>322</v>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B58" t="s">
+        <v>322</v>
+      </c>
+      <c r="C58" t="n">
+        <v>77845566</v>
+      </c>
+      <c r="D58" t="n">
+        <v>890267256</v>
+      </c>
+      <c r="E58" t="n">
+        <v>105609207</v>
+      </c>
+      <c r="F58" t="n">
+        <v>76029462</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1024105.86</v>
+      </c>
+      <c r="J58" t="n">
+        <v>782351.92</v>
+      </c>
+      <c r="K58" t="n">
+        <v>104500.81</v>
+      </c>
+      <c r="L58" t="n">
+        <v>75596.1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>61657.03</v>
+      </c>
+      <c r="N58" t="s">
         <v>323</v>
       </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>77845566</v>
-      </c>
-      <c r="E58" t="n">
-        <v>890267256</v>
-      </c>
-      <c r="F58" t="n">
-        <v>105609207</v>
-      </c>
-      <c r="G58" t="n">
-        <v>76029462</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1024105.86</v>
-      </c>
-      <c r="K58" t="n">
-        <v>782351.92</v>
-      </c>
-      <c r="L58" t="n">
-        <v>104500.81</v>
-      </c>
-      <c r="M58" t="n">
-        <v>75596.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>61657.03</v>
-      </c>
-      <c r="O58" t="s">
-        <v>324</v>
+      <c r="O58" t="n">
+        <v>0.000878783213385981</v>
       </c>
       <c r="P58" t="n">
-        <v>0.000878783213385981</v>
-      </c>
-      <c r="Q58" t="n">
         <v>0.000991511945069362</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
+        <v>324</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8120649</v>
+      </c>
+      <c r="D59" t="n">
+        <v>677484465</v>
+      </c>
+      <c r="E59" t="n">
+        <v>82234686</v>
+      </c>
+      <c r="F59" t="n">
+        <v>62394480</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2143939.96</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1707056.01</v>
+      </c>
+      <c r="K59" t="n">
+        <v>233875.05</v>
+      </c>
+      <c r="L59" t="n">
+        <v>178656.21</v>
+      </c>
+      <c r="M59" t="n">
+        <v>24352.69</v>
+      </c>
+      <c r="N59" t="s">
         <v>325</v>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>8120649</v>
-      </c>
-      <c r="E59" t="n">
-        <v>677484465</v>
-      </c>
-      <c r="F59" t="n">
-        <v>82234686</v>
-      </c>
-      <c r="G59" t="n">
-        <v>62394480</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2143939.96</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1707056.01</v>
-      </c>
-      <c r="L59" t="n">
-        <v>233875.05</v>
-      </c>
-      <c r="M59" t="n">
-        <v>178656.21</v>
-      </c>
-      <c r="N59" t="n">
-        <v>24352.69</v>
-      </c>
-      <c r="O59" t="s">
-        <v>326</v>
+      <c r="O59" t="n">
+        <v>0.0025196976435467</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0025196976435467</v>
-      </c>
-      <c r="Q59" t="n">
         <v>0.00285233795789156</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" t="n">
+        <v>230940</v>
+      </c>
+      <c r="D60" t="n">
+        <v>312054</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9825.11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5503.14</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4321.97</v>
+      </c>
+      <c r="N60" t="s">
         <v>327</v>
       </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>230940</v>
-      </c>
-      <c r="E60" t="n">
-        <v>312054</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>9825.11</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5503.14</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>4321.97</v>
-      </c>
-      <c r="O60" t="s">
-        <v>328</v>
+      <c r="O60" t="n">
+        <v>0.0176352169816762</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0176352169816762</v>
-      </c>
-      <c r="Q60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1223580</v>
+      </c>
+      <c r="D61" t="n">
+        <v>17512917</v>
+      </c>
+      <c r="E61" t="n">
+        <v>19150167</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10435317</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>141386.95</v>
+      </c>
+      <c r="J61" t="n">
+        <v>48562.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>58144.29</v>
+      </c>
+      <c r="L61" t="n">
+        <v>31684.07</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2996.09</v>
+      </c>
+      <c r="N61" t="s">
         <v>329</v>
       </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1223580</v>
-      </c>
-      <c r="E61" t="n">
-        <v>17512917</v>
-      </c>
-      <c r="F61" t="n">
-        <v>19150167</v>
-      </c>
-      <c r="G61" t="n">
-        <v>10435317</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>141386.95</v>
-      </c>
-      <c r="K61" t="n">
-        <v>48562.5</v>
-      </c>
-      <c r="L61" t="n">
-        <v>58144.29</v>
-      </c>
-      <c r="M61" t="n">
-        <v>31684.07</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2996.09</v>
-      </c>
-      <c r="O61" t="s">
-        <v>330</v>
+      <c r="O61" t="n">
+        <v>0.00277295324359728</v>
       </c>
       <c r="P61" t="n">
-        <v>0.00277295324359728</v>
-      </c>
-      <c r="Q61" t="n">
         <v>0.0030362308759255</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1223580</v>
+      </c>
+      <c r="D62" t="n">
+        <v>17512917</v>
+      </c>
+      <c r="E62" t="n">
+        <v>19150167</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10435317</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>60918.39</v>
+      </c>
+      <c r="J62" t="n">
+        <v>20923.81</v>
+      </c>
+      <c r="K62" t="n">
+        <v>25052.19</v>
+      </c>
+      <c r="L62" t="n">
+        <v>13651.49</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1290.9</v>
+      </c>
+      <c r="N62" t="s">
         <v>331</v>
       </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1223580</v>
-      </c>
-      <c r="E62" t="n">
-        <v>17512917</v>
-      </c>
-      <c r="F62" t="n">
-        <v>19150167</v>
-      </c>
-      <c r="G62" t="n">
-        <v>10435317</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>60918.39</v>
-      </c>
-      <c r="K62" t="n">
-        <v>20923.81</v>
-      </c>
-      <c r="L62" t="n">
-        <v>25052.19</v>
-      </c>
-      <c r="M62" t="n">
-        <v>13651.49</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1290.9</v>
-      </c>
-      <c r="O62" t="s">
-        <v>332</v>
+      <c r="O62" t="n">
+        <v>0.00119476441303296</v>
       </c>
       <c r="P62" t="n">
-        <v>0.00119476441303296</v>
-      </c>
-      <c r="Q62" t="n">
         <v>0.00130819830427652</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" t="n">
+        <v>82360596</v>
+      </c>
+      <c r="D63" t="n">
+        <v>898276485</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8314818</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>918738</v>
+      </c>
+      <c r="I63" t="n">
+        <v>744256.85</v>
+      </c>
+      <c r="J63" t="n">
+        <v>689672.84</v>
+      </c>
+      <c r="K63" t="n">
+        <v>6993.87</v>
+      </c>
+      <c r="L63" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="M63" t="n">
+        <v>47583.38</v>
+      </c>
+      <c r="N63" t="s">
         <v>333</v>
       </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>82360596</v>
-      </c>
-      <c r="E63" t="n">
-        <v>898276485</v>
-      </c>
-      <c r="F63" t="n">
-        <v>8314818</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>918738</v>
-      </c>
-      <c r="J63" t="n">
-        <v>744256.85</v>
-      </c>
-      <c r="K63" t="n">
-        <v>689672.84</v>
-      </c>
-      <c r="L63" t="n">
-        <v>6993.87</v>
-      </c>
-      <c r="M63" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="N63" t="n">
-        <v>47583.38</v>
-      </c>
-      <c r="O63" t="s">
-        <v>334</v>
+      <c r="O63" t="n">
+        <v>0.00076777345451718</v>
       </c>
       <c r="P63" t="n">
-        <v>0.00076777345451718</v>
-      </c>
-      <c r="Q63" t="n">
         <v>0.000841946269900315</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
+        <v>334</v>
+      </c>
+      <c r="C64" t="n">
+        <v>13040415</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1029594414</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7191480</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4278794.31</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4204071.81</v>
+      </c>
+      <c r="K64" t="n">
+        <v>32282.87</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>42439.63</v>
+      </c>
+      <c r="N64" t="s">
         <v>335</v>
       </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>13040415</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1029594414</v>
-      </c>
-      <c r="F64" t="n">
-        <v>7191480</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4278794.31</v>
-      </c>
-      <c r="K64" t="n">
-        <v>4204071.81</v>
-      </c>
-      <c r="L64" t="n">
-        <v>32282.87</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>42439.63</v>
-      </c>
-      <c r="O64" t="s">
-        <v>336</v>
+      <c r="O64" t="n">
+        <v>0.00408323098186506</v>
       </c>
       <c r="P64" t="n">
-        <v>0.00408323098186506</v>
-      </c>
-      <c r="Q64" t="n">
         <v>0.00448904397982057</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s">
+        <v>336</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5930259</v>
+      </c>
+      <c r="D65" t="n">
+        <v>686069262</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7191480</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>533625.33</v>
+      </c>
+      <c r="J65" t="n">
+        <v>523333.17</v>
+      </c>
+      <c r="K65" t="n">
+        <v>6047.47</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4244.69</v>
+      </c>
+      <c r="N65" t="s">
         <v>337</v>
       </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>5930259</v>
-      </c>
-      <c r="E65" t="n">
-        <v>686069262</v>
-      </c>
-      <c r="F65" t="n">
-        <v>7191480</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>533625.33</v>
-      </c>
-      <c r="K65" t="n">
-        <v>523333.17</v>
-      </c>
-      <c r="L65" t="n">
-        <v>6047.47</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>4244.69</v>
-      </c>
-      <c r="O65" t="s">
-        <v>338</v>
+      <c r="O65" t="n">
+        <v>0.000762799325062897</v>
       </c>
       <c r="P65" t="n">
-        <v>0.000762799325062897</v>
-      </c>
-      <c r="Q65" t="n">
         <v>0.000840921479306068</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11017767</v>
+      </c>
+      <c r="D66" t="n">
+        <v>700693545</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7380441</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11332275.63</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11064449.67</v>
+      </c>
+      <c r="K66" t="n">
+        <v>128424.28</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>139401.68</v>
+      </c>
+      <c r="N66" t="s">
         <v>339</v>
       </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>11017767</v>
-      </c>
-      <c r="E66" t="n">
-        <v>700693545</v>
-      </c>
-      <c r="F66" t="n">
-        <v>7380441</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>11332275.63</v>
-      </c>
-      <c r="K66" t="n">
-        <v>11064449.67</v>
-      </c>
-      <c r="L66" t="n">
-        <v>128424.28</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>139401.68</v>
-      </c>
-      <c r="O66" t="s">
-        <v>340</v>
+      <c r="O66" t="n">
+        <v>0.0157907115727747</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0157907115727747</v>
-      </c>
-      <c r="Q66" t="n">
         <v>0.0174006241632444</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C67" t="n">
+        <v>27314568</v>
+      </c>
+      <c r="D67" t="n">
+        <v>95611134</v>
+      </c>
+      <c r="E67" t="n">
+        <v>230181</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>918738</v>
+      </c>
+      <c r="I67" t="n">
+        <v>326367.39</v>
+      </c>
+      <c r="J67" t="n">
+        <v>269500.04</v>
+      </c>
+      <c r="K67" t="n">
+        <v>705.74</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>56161.61</v>
+      </c>
+      <c r="N67" t="s">
         <v>341</v>
       </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>27314568</v>
-      </c>
-      <c r="E67" t="n">
-        <v>95611134</v>
-      </c>
-      <c r="F67" t="n">
-        <v>230181</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>918738</v>
-      </c>
-      <c r="J67" t="n">
-        <v>326367.39</v>
-      </c>
-      <c r="K67" t="n">
-        <v>269500.04</v>
-      </c>
-      <c r="L67" t="n">
-        <v>705.74</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>56161.61</v>
-      </c>
-      <c r="O67" t="s">
-        <v>342</v>
+      <c r="O67" t="n">
+        <v>0.00281870979586959</v>
       </c>
       <c r="P67" t="n">
-        <v>0.00281870979586959</v>
-      </c>
-      <c r="Q67" t="n">
         <v>0.00306602195663413</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B68" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5204190</v>
+      </c>
+      <c r="D68" t="n">
+        <v>375698631</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6088785</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>557625.78</v>
+      </c>
+      <c r="J68" t="n">
+        <v>541192.96</v>
+      </c>
+      <c r="K68" t="n">
+        <v>9476.18</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6956.64</v>
+      </c>
+      <c r="N68" t="s">
         <v>343</v>
       </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>5204190</v>
-      </c>
-      <c r="E68" t="n">
-        <v>375698631</v>
-      </c>
-      <c r="F68" t="n">
-        <v>6088785</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>557625.78</v>
-      </c>
-      <c r="K68" t="n">
-        <v>541192.96</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9476.18</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>6956.64</v>
-      </c>
-      <c r="O68" t="s">
-        <v>344</v>
+      <c r="O68" t="n">
+        <v>0.00144049755667063</v>
       </c>
       <c r="P68" t="n">
-        <v>0.00144049755667063</v>
-      </c>
-      <c r="Q68" t="n">
         <v>0.00155633348853671</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
+        <v>344</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4010034</v>
+      </c>
+      <c r="D69" t="n">
+        <v>562173</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2509.86</v>
+      </c>
+      <c r="J69" t="n">
+        <v>340.91</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2168.95</v>
+      </c>
+      <c r="N69" t="s">
         <v>345</v>
       </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4010034</v>
-      </c>
-      <c r="E69" t="n">
-        <v>562173</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2509.86</v>
-      </c>
-      <c r="K69" t="n">
-        <v>340.91</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2168.95</v>
-      </c>
-      <c r="O69" t="s">
-        <v>346</v>
+      <c r="O69" t="n">
+        <v>0.000606414751330996</v>
       </c>
       <c r="P69" t="n">
-        <v>0.000606414751330996</v>
-      </c>
-      <c r="Q69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
+        <v>346</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11586300</v>
+      </c>
+      <c r="D70" t="n">
+        <v>343084488</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>428075.2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>417120.29</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>10954.91</v>
+      </c>
+      <c r="N70" t="s">
         <v>347</v>
       </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>11586300</v>
-      </c>
-      <c r="E70" t="n">
-        <v>343084488</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>428075.2</v>
-      </c>
-      <c r="K70" t="n">
-        <v>417120.29</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>10954.91</v>
-      </c>
-      <c r="O70" t="s">
-        <v>348</v>
+      <c r="O70" t="n">
+        <v>0.00121579466454922</v>
       </c>
       <c r="P70" t="n">
-        <v>0.00121579466454922</v>
-      </c>
-      <c r="Q70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" t="n">
+        <v>63238467</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4662017055</v>
+      </c>
+      <c r="E71" t="n">
+        <v>567377085</v>
+      </c>
+      <c r="F71" t="n">
+        <v>64298241</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3711542.97</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3220422.08</v>
+      </c>
+      <c r="K71" t="n">
+        <v>408331.68</v>
+      </c>
+      <c r="L71" t="n">
+        <v>49001.68</v>
+      </c>
+      <c r="M71" t="n">
+        <v>33787.53</v>
+      </c>
+      <c r="N71" t="s">
         <v>349</v>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>63238467</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4662017055</v>
-      </c>
-      <c r="F71" t="n">
-        <v>567377085</v>
-      </c>
-      <c r="G71" t="n">
-        <v>64298241</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3711542.97</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3220422.08</v>
-      </c>
-      <c r="L71" t="n">
-        <v>408331.68</v>
-      </c>
-      <c r="M71" t="n">
-        <v>49001.68</v>
-      </c>
-      <c r="N71" t="n">
-        <v>33787.53</v>
-      </c>
-      <c r="O71" t="s">
-        <v>350</v>
+      <c r="O71" t="n">
+        <v>0.000690778699864709</v>
       </c>
       <c r="P71" t="n">
-        <v>0.000690778699864709</v>
-      </c>
-      <c r="Q71" t="n">
         <v>0.00072400067119291</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1139667</v>
+      </c>
+      <c r="E72" t="n">
+        <v>270411</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2794.48</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2214</v>
+      </c>
+      <c r="K72" t="n">
+        <v>580.48</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>351</v>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1139667</v>
-      </c>
-      <c r="F72" t="n">
-        <v>270411</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2794.48</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2214</v>
-      </c>
-      <c r="L72" t="n">
-        <v>580.48</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="s">
-        <v>352</v>
+      <c r="O72" t="n">
+        <v>0.00194267272808636</v>
       </c>
       <c r="P72" t="n">
-        <v>0.00194267272808636</v>
-      </c>
-      <c r="Q72" t="n">
         <v>0.00214665823505701</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>443935932</v>
+      </c>
+      <c r="E73" t="n">
+        <v>34570614</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>489358.83</v>
+      </c>
+      <c r="J73" t="n">
+        <v>450968.16</v>
+      </c>
+      <c r="K73" t="n">
+        <v>38390.67</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
         <v>353</v>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>443935932</v>
-      </c>
-      <c r="F73" t="n">
-        <v>34570614</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>489358.83</v>
-      </c>
-      <c r="K73" t="n">
-        <v>450968.16</v>
-      </c>
-      <c r="L73" t="n">
-        <v>38390.67</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="s">
-        <v>354</v>
+      <c r="O73" t="n">
+        <v>0.00101584063711247</v>
       </c>
       <c r="P73" t="n">
-        <v>0.00101584063711247</v>
-      </c>
-      <c r="Q73" t="n">
         <v>0.00111050009120463</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B74" t="s">
+        <v>354</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>443935932</v>
+      </c>
+      <c r="E74" t="n">
+        <v>34570614</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2710385.49</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2497753.17</v>
+      </c>
+      <c r="K74" t="n">
+        <v>212632.32</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>355</v>
       </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>443935932</v>
-      </c>
-      <c r="F74" t="n">
-        <v>34570614</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2710385.49</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2497753.17</v>
-      </c>
-      <c r="L74" t="n">
-        <v>212632.32</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="s">
-        <v>356</v>
+      <c r="O74" t="n">
+        <v>0.0056263820744296</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0056263820744296</v>
-      </c>
-      <c r="Q74" t="n">
         <v>0.00615066657479673</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s">
+        <v>356</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>129845946</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>357</v>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>129845946</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="s">
-        <v>358</v>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B76" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>50257272</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>18000.48</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>18000.48</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>359</v>
       </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>50257272</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>18000.48</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>18000.48</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="s">
-        <v>360</v>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
         <v>0.000358166674864485</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>4764531</v>
       </c>
       <c r="E77" t="n">
-        <v>4764531</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -7631,13 +7403,13 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="J77" t="n">
         <v>12000</v>
       </c>
       <c r="K77" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -7645,281 +7417,263 @@
       <c r="M77" t="n">
         <v>0</v>
       </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="s">
-        <v>362</v>
+      <c r="N77" t="s">
+        <v>361</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.00251861096086897</v>
       </c>
       <c r="P77" t="n">
-        <v>0.00251861096086897</v>
-      </c>
-      <c r="Q77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" t="n">
+        <v>83404203</v>
+      </c>
+      <c r="D78" t="n">
+        <v>128730861</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6148746</v>
+      </c>
+      <c r="F78" t="n">
+        <v>63710361</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>88394.17</v>
+      </c>
+      <c r="J78" t="n">
+        <v>43407.58</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2276.51</v>
+      </c>
+      <c r="L78" t="n">
+        <v>23592.3</v>
+      </c>
+      <c r="M78" t="n">
+        <v>19117.78</v>
+      </c>
+      <c r="N78" t="s">
         <v>363</v>
       </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>83404203</v>
-      </c>
-      <c r="E78" t="n">
-        <v>128730861</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6148746</v>
-      </c>
-      <c r="G78" t="n">
-        <v>63710361</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>88394.17</v>
-      </c>
-      <c r="K78" t="n">
-        <v>43407.58</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2276.51</v>
-      </c>
-      <c r="M78" t="n">
-        <v>23592.3</v>
-      </c>
-      <c r="N78" t="n">
-        <v>19117.78</v>
-      </c>
-      <c r="O78" t="s">
-        <v>364</v>
+      <c r="O78" t="n">
+        <v>0.000337196377487136</v>
       </c>
       <c r="P78" t="n">
-        <v>0.000337196377487136</v>
-      </c>
-      <c r="Q78" t="n">
         <v>0.00037029975204235</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" t="n">
+        <v>85710672</v>
+      </c>
+      <c r="D79" t="n">
+        <v>471542295</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6148746</v>
+      </c>
+      <c r="F79" t="n">
+        <v>63710361</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1266600.39</v>
+      </c>
+      <c r="J79" t="n">
+        <v>984748.3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>14055.63</v>
+      </c>
+      <c r="L79" t="n">
+        <v>145663.21</v>
+      </c>
+      <c r="M79" t="n">
+        <v>122133.25</v>
+      </c>
+      <c r="N79" t="s">
         <v>365</v>
       </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>85710672</v>
-      </c>
-      <c r="E79" t="n">
-        <v>471542295</v>
-      </c>
-      <c r="F79" t="n">
-        <v>6148746</v>
-      </c>
-      <c r="G79" t="n">
-        <v>63710361</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1266600.39</v>
-      </c>
-      <c r="K79" t="n">
-        <v>984748.3</v>
-      </c>
-      <c r="L79" t="n">
-        <v>14055.63</v>
-      </c>
-      <c r="M79" t="n">
-        <v>145663.21</v>
-      </c>
-      <c r="N79" t="n">
-        <v>122133.25</v>
-      </c>
-      <c r="O79" t="s">
-        <v>366</v>
+      <c r="O79" t="n">
+        <v>0.00208835625232727</v>
       </c>
       <c r="P79" t="n">
-        <v>0.00208835625232727</v>
-      </c>
-      <c r="Q79" t="n">
         <v>0.00228629947989458</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
+        <v>366</v>
+      </c>
+      <c r="C80" t="n">
+        <v>34304709</v>
+      </c>
+      <c r="D80" t="n">
+        <v>100466508</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5689335</v>
+      </c>
+      <c r="F80" t="n">
+        <v>63710361</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>481742.55</v>
+      </c>
+      <c r="J80" t="n">
+        <v>241779.69</v>
+      </c>
+      <c r="K80" t="n">
+        <v>15035.1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>168397.56</v>
+      </c>
+      <c r="M80" t="n">
+        <v>56530.2</v>
+      </c>
+      <c r="N80" t="s">
         <v>367</v>
       </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>34304709</v>
-      </c>
-      <c r="E80" t="n">
-        <v>100466508</v>
-      </c>
-      <c r="F80" t="n">
-        <v>5689335</v>
-      </c>
-      <c r="G80" t="n">
-        <v>63710361</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>481742.55</v>
-      </c>
-      <c r="K80" t="n">
-        <v>241779.69</v>
-      </c>
-      <c r="L80" t="n">
-        <v>15035.1</v>
-      </c>
-      <c r="M80" t="n">
-        <v>168397.56</v>
-      </c>
-      <c r="N80" t="n">
-        <v>56530.2</v>
-      </c>
-      <c r="O80" t="s">
-        <v>368</v>
+      <c r="O80" t="n">
+        <v>0.00240657005815311</v>
       </c>
       <c r="P80" t="n">
-        <v>0.00240657005815311</v>
-      </c>
-      <c r="Q80" t="n">
         <v>0.00264313348000833</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6024066</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2841867</v>
+      </c>
+      <c r="E81" t="n">
+        <v>386271</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16670.81</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6482.63</v>
+      </c>
+      <c r="K81" t="n">
+        <v>953.55</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>9234.63</v>
+      </c>
+      <c r="N81" t="s">
         <v>369</v>
       </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6024066</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2841867</v>
-      </c>
-      <c r="F81" t="n">
-        <v>386271</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>16670.81</v>
-      </c>
-      <c r="K81" t="n">
-        <v>6482.63</v>
-      </c>
-      <c r="L81" t="n">
-        <v>953.55</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>9234.63</v>
-      </c>
-      <c r="O81" t="s">
-        <v>370</v>
+      <c r="O81" t="n">
+        <v>0.002281116603979</v>
       </c>
       <c r="P81" t="n">
-        <v>0.002281116603979</v>
-      </c>
-      <c r="Q81" t="n">
         <v>0.00246860364873366</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B82" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" t="n">
+        <v>740370</v>
+      </c>
+      <c r="D82" t="n">
+        <v>69709134</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2141055</v>
+      </c>
+      <c r="F82" t="n">
+        <v>63710361</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>240626.87</v>
+      </c>
+      <c r="J82" t="n">
+        <v>117518.64</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3958.17</v>
+      </c>
+      <c r="L82" t="n">
+        <v>117781.35</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1368.71</v>
+      </c>
+      <c r="N82" t="s">
         <v>371</v>
       </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>740370</v>
-      </c>
-      <c r="E82" t="n">
-        <v>69709134</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2141055</v>
-      </c>
-      <c r="G82" t="n">
-        <v>63710361</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>240626.87</v>
-      </c>
-      <c r="K82" t="n">
-        <v>117518.64</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3958.17</v>
-      </c>
-      <c r="M82" t="n">
-        <v>117781.35</v>
-      </c>
-      <c r="N82" t="n">
-        <v>1368.71</v>
-      </c>
-      <c r="O82" t="s">
-        <v>372</v>
+      <c r="O82" t="n">
+        <v>0.00168584277635697</v>
       </c>
       <c r="P82" t="n">
-        <v>0.00168584277635697</v>
-      </c>
-      <c r="Q82" t="n">
         <v>0.00184870010995663</v>
       </c>
     </row>
@@ -7945,25 +7699,25 @@
         <v>182</v>
       </c>
       <c r="C1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>184</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>185</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>186</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>187</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>188</v>
-      </c>
-      <c r="I1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2">
@@ -8381,10 +8135,10 @@
         <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2">
